--- a/ExcelBasic/필요한것만 골라보기_01~10.xlsx
+++ b/ExcelBasic/필요한것만 골라보기_01~10.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\★유튜브업로드\예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Jun\learning\learning-excel\ExcelBasic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="12105" tabRatio="712"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10980" tabRatio="712" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2.Ctrl키와 Shift키" sheetId="16" r:id="rId1"/>
@@ -22,13 +22,13 @@
     <sheet name="6.중요한 보기방식" sheetId="13" r:id="rId8"/>
     <sheet name="7.기본입력방법" sheetId="14" r:id="rId9"/>
     <sheet name="8.테두리" sheetId="15" r:id="rId10"/>
-    <sheet name="9.시트" sheetId="17" r:id="rId11"/>
-    <sheet name="10.저장" sheetId="23" r:id="rId12"/>
+    <sheet name="10.저장" sheetId="23" r:id="rId11"/>
+    <sheet name="9.시트" sheetId="17" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">사원명부2!$A$1:$P$80</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="612">
   <si>
     <t>동명왕</t>
   </si>
@@ -805,10 +805,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>근무시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근무일/휴일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -863,10 +859,6 @@
   </si>
   <si>
     <t>차량유지비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중식대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2590,7 +2582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2652,9 +2644,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2804,6 +2793,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2813,16 +2814,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2840,13 +2838,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2860,6 +2861,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3040,16 +3050,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3064,8 +3074,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8839200" y="85725"/>
-          <a:ext cx="2314575" cy="838200"/>
+          <a:off x="12954000" y="200025"/>
+          <a:ext cx="1676400" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3114,7 +3124,7 @@
               <a:latin typeface="+mj-ea"/>
               <a:ea typeface="+mj-ea"/>
             </a:rPr>
-            <a:t>(COLUMN) : 1,048,576</a:t>
+            <a:t> : 1,048,576</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1200">
@@ -3141,7 +3151,7 @@
               <a:latin typeface="+mj-ea"/>
               <a:ea typeface="+mj-ea"/>
             </a:rPr>
-            <a:t>(ROW) : 16,384</a:t>
+            <a:t> : 16,384</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5033,9 +5043,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -5049,95 +5061,95 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B2" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="94" t="s">
         <v>472</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="94" t="s">
         <v>471</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="94" t="s">
         <v>470</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="94" t="s">
         <v>469</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="F2" s="94" t="s">
         <v>468</v>
       </c>
+      <c r="G2" s="94" t="s">
+        <v>467</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="3" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B3" s="6" t="s">
-        <v>467</v>
+      <c r="B3" s="67" t="s">
+        <v>465</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>178</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G3" s="7">
         <v>35997</v>
       </c>
       <c r="I3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="27.75" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G4" s="7">
         <v>35622</v>
       </c>
       <c r="I4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="67" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>111</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G5" s="7">
         <v>35786</v>
       </c>
       <c r="I5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="27.75" customHeight="1">
@@ -5154,24 +5166,24 @@
         <v>112</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G6" s="7">
         <v>35235</v>
       </c>
-      <c r="I6" s="54" t="s">
-        <v>457</v>
+      <c r="I6" s="53" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B7" s="5" t="s">
-        <v>456</v>
+      <c r="B7" s="93" t="s">
+        <v>454</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>113</v>
@@ -5191,13 +5203,13 @@
         <v>88</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>114</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G8" s="7">
         <v>35270</v>
@@ -5208,25 +5220,65 @@
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>115</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G9" s="7">
         <v>35083</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="7">
+        <v>35622</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="7">
+        <v>35235</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5243,124 +5295,124 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F2" t="s">
+        <v>446</v>
+      </c>
+      <c r="K2" t="s">
         <v>448</v>
       </c>
-      <c r="K2" t="s">
-        <v>450</v>
-      </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5370,6 +5422,52 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:3" s="50" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B2" s="50" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" s="50" customFormat="1" ht="27.75" customHeight="1">
+      <c r="C3" s="51" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" s="50" customFormat="1" ht="27.75" customHeight="1">
+      <c r="C4" s="51" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" s="50" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="6" spans="2:3" s="50" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B6" s="50" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" s="50" customFormat="1" ht="27.75" customHeight="1">
+      <c r="C7" s="51" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" s="50" customFormat="1" ht="27.75" customHeight="1">
+      <c r="C8" s="51" t="s">
+        <v>487</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
@@ -5382,47 +5480,47 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="39" customHeight="1">
       <c r="B3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="39" customHeight="1">
       <c r="B4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="39" customHeight="1">
       <c r="B5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="39" customHeight="1">
       <c r="B6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="39" customHeight="1">
-      <c r="B7" s="36" t="s">
-        <v>481</v>
+      <c r="B7" s="35" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="35.25" customHeight="1">
-      <c r="B8" s="36" t="s">
-        <v>482</v>
+      <c r="B8" s="35" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="28.5" customHeight="1">
       <c r="B9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="28.5" customHeight="1">
       <c r="B10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -5432,68 +5530,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="2" spans="2:3" s="51" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B2" s="51" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" s="51" customFormat="1" ht="27.75" customHeight="1">
-      <c r="C3" s="52" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" s="51" customFormat="1" ht="27.75" customHeight="1">
-      <c r="C4" s="52" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" s="51" customFormat="1" ht="27.75" customHeight="1"/>
-    <row r="6" spans="2:3" s="51" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B6" s="51" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" s="51" customFormat="1" ht="27.75" customHeight="1">
-      <c r="C7" s="52" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" s="51" customFormat="1" ht="27.75" customHeight="1">
-      <c r="C8" s="52" t="s">
-        <v>489</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="2" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="3.125" customWidth="1"/>
+    <col min="7" max="10" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="27.75" customHeight="1">
+    <row r="2" spans="2:10" ht="30" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>76</v>
       </c>
@@ -5506,8 +5559,20 @@
       <c r="E2" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="24.75" customHeight="1">
+      <c r="G2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="30" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>58</v>
       </c>
@@ -5520,8 +5585,20 @@
       <c r="E3" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="24.75" customHeight="1">
+      <c r="G3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="30" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>57</v>
       </c>
@@ -5534,8 +5611,20 @@
       <c r="E4" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="24.75" customHeight="1">
+      <c r="G4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="30" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
@@ -5548,8 +5637,20 @@
       <c r="E5" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="24.75" customHeight="1">
+      <c r="G5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="30" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
@@ -5562,8 +5663,20 @@
       <c r="E6" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="24.75" customHeight="1">
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="30" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>62</v>
       </c>
@@ -5576,8 +5689,20 @@
       <c r="E7" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="24.75" customHeight="1">
+      <c r="G7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="30" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -5590,8 +5715,20 @@
       <c r="E8" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="24.75" customHeight="1">
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="30" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
@@ -5604,8 +5741,20 @@
       <c r="E9" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="24.75" customHeight="1">
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="30" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>71</v>
       </c>
@@ -5618,8 +5767,20 @@
       <c r="E10" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="24.75" customHeight="1">
+      <c r="G10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="30" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
@@ -5630,10 +5791,22 @@
         <v>99</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="24.75" customHeight="1">
+        <v>116</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="30" customHeight="1">
       <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
@@ -5646,8 +5819,20 @@
       <c r="E12" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="24.75" customHeight="1">
+      <c r="G12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="30" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>2</v>
       </c>
@@ -5658,13 +5843,25 @@
         <v>102</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5673,7 +5870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -5697,7 +5896,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="2:11" ht="5.25" customHeight="1"/>
+    <row r="3" spans="2:11" ht="17.25" customHeight="1"/>
     <row r="4" spans="2:11">
       <c r="B4" s="4" t="s">
         <v>76</v>
@@ -5721,10 +5920,10 @@
         <v>85</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -5747,7 +5946,7 @@
         <v>35997</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J5" s="1">
         <v>100</v>
@@ -5776,7 +5975,7 @@
         <v>35622</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J6" s="1">
         <v>300</v>
@@ -5803,7 +6002,7 @@
         <v>35786</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
@@ -5830,7 +6029,7 @@
         <v>35235</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J8" s="1">
         <v>500</v>
@@ -5857,7 +6056,7 @@
         <v>36419</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -5882,7 +6081,7 @@
         <v>35270</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1">
@@ -5900,7 +6099,7 @@
         <v>99</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>192</v>
@@ -5909,7 +6108,7 @@
         <v>35083</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J11" s="1">
         <v>7100</v>
@@ -5938,7 +6137,7 @@
         <v>36441</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -5963,7 +6162,7 @@
         <v>35908</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J13" s="1">
         <v>900</v>
@@ -5990,7 +6189,7 @@
         <v>35257</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -6013,7 +6212,7 @@
         <v>35727</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -6027,16 +6226,16 @@
         <v>102</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7">
         <v>35613</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -6053,13 +6252,13 @@
         <v>120</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7">
         <v>36255</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -6082,7 +6281,7 @@
         <v>36993</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -6105,7 +6304,7 @@
         <v>37152</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -6128,7 +6327,7 @@
         <v>37049</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -6151,7 +6350,7 @@
         <v>36313</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -6174,7 +6373,7 @@
         <v>37421</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -6197,7 +6396,7 @@
         <v>36843</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -6220,7 +6419,7 @@
         <v>36171</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -6243,7 +6442,7 @@
         <v>37523</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -6266,7 +6465,7 @@
         <v>38980</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -6289,7 +6488,7 @@
         <v>38660</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -6312,7 +6511,7 @@
         <v>38987</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -6335,7 +6534,7 @@
         <v>37237</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -6358,7 +6557,7 @@
         <v>38828</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="2:8">
@@ -6381,7 +6580,7 @@
         <v>38758</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -6404,7 +6603,7 @@
         <v>37285</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="2:8">
@@ -6427,7 +6626,7 @@
         <v>37418</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="2:8">
@@ -6450,7 +6649,7 @@
         <v>38810</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -6473,7 +6672,7 @@
         <v>37421</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="2:8">
@@ -6496,7 +6695,7 @@
         <v>37335</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="2:8">
@@ -6519,7 +6718,7 @@
         <v>38847</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -6542,7 +6741,7 @@
         <v>38672</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="2:8">
@@ -6565,7 +6764,7 @@
         <v>40788</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="2:8">
@@ -6588,7 +6787,7 @@
         <v>39157</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="2:8">
@@ -6611,7 +6810,7 @@
         <v>38889</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="2:8">
@@ -6634,7 +6833,7 @@
         <v>38912</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="2:8">
@@ -6657,7 +6856,7 @@
         <v>40765</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -6680,7 +6879,7 @@
         <v>40080</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="2:8">
@@ -6703,7 +6902,7 @@
         <v>40240</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -6726,7 +6925,7 @@
         <v>39605</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -6749,7 +6948,7 @@
         <v>40826</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -6772,7 +6971,7 @@
         <v>39708</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="2:8">
@@ -6795,7 +6994,7 @@
         <v>40102</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="2:8">
@@ -6818,7 +7017,7 @@
         <v>39542</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="2:8">
@@ -6841,7 +7040,7 @@
         <v>41030</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="2:8">
@@ -6864,7 +7063,7 @@
         <v>40200</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="2:8">
@@ -6887,7 +7086,7 @@
         <v>39779</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="2:8">
@@ -6910,7 +7109,7 @@
         <v>38891</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="2:8">
@@ -6933,7 +7132,7 @@
         <v>39168</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="2:8">
@@ -6956,7 +7155,7 @@
         <v>40816</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="2:8">
@@ -6979,7 +7178,7 @@
         <v>41278</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="2:8">
@@ -7002,7 +7201,7 @@
         <v>40563</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="2:8">
@@ -7025,7 +7224,7 @@
         <v>42269</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="2:8">
@@ -7048,7 +7247,7 @@
         <v>40869</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="2:8">
@@ -7071,7 +7270,7 @@
         <v>42830</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="2:8">
@@ -7094,7 +7293,7 @@
         <v>40710</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="2:8">
@@ -7117,7 +7316,7 @@
         <v>42699</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="2:8">
@@ -7140,7 +7339,7 @@
         <v>41765</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="2:8">
@@ -7163,7 +7362,7 @@
         <v>41157</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="2:8">
@@ -7186,7 +7385,7 @@
         <v>42352</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="2:8">
@@ -7209,7 +7408,7 @@
         <v>40809</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="2:8">
@@ -7232,7 +7431,7 @@
         <v>40683</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="2:8">
@@ -7255,7 +7454,7 @@
         <v>41568</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="2:8">
@@ -7278,7 +7477,7 @@
         <v>41914</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="2:8">
@@ -7301,7 +7500,7 @@
         <v>41312</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="2:8">
@@ -7324,7 +7523,7 @@
         <v>42332</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="2:8">
@@ -7347,7 +7546,7 @@
         <v>42951</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="2:8">
@@ -7370,7 +7569,7 @@
         <v>41873</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="2:8">
@@ -7393,7 +7592,7 @@
         <v>40703</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="2:8">
@@ -7416,7 +7615,7 @@
         <v>41337</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="2:8">
@@ -7439,7 +7638,7 @@
         <v>42009</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="2:8">
@@ -7462,7 +7661,7 @@
         <v>40883</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="2:8">
@@ -7485,7 +7684,7 @@
         <v>42667</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="2:8">
@@ -7508,13 +7707,13 @@
         <v>41589</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7522,7 +7721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -7550,7 +7751,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="2:11" ht="6" customHeight="1"/>
+    <row r="3" spans="2:11" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:11">
       <c r="B4" s="4" t="s">
         <v>76</v>
@@ -7606,7 +7807,7 @@
         <v>35997</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -7632,7 +7833,7 @@
         <v>35622</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -7658,7 +7859,7 @@
         <v>35786</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -7684,7 +7885,7 @@
         <v>35235</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -7710,7 +7911,7 @@
         <v>36419</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -7736,7 +7937,7 @@
         <v>35270</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -7762,7 +7963,7 @@
         <v>35083</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -7788,7 +7989,7 @@
         <v>36441</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -7814,7 +8015,7 @@
         <v>35908</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -7840,7 +8041,7 @@
         <v>35257</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -7866,7 +8067,7 @@
         <v>35727</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -7881,18 +8082,18 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J16" s="7">
         <v>35613</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -7907,7 +8108,7 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -7918,7 +8119,7 @@
         <v>36255</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -7944,7 +8145,7 @@
         <v>36993</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -7970,7 +8171,7 @@
         <v>37152</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -7996,7 +8197,7 @@
         <v>37049</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -8022,7 +8223,7 @@
         <v>36313</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -8048,7 +8249,7 @@
         <v>37421</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -8074,7 +8275,7 @@
         <v>36843</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="2:11">
@@ -8100,7 +8301,7 @@
         <v>36171</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="2:11">
@@ -8126,7 +8327,7 @@
         <v>37523</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -8152,7 +8353,7 @@
         <v>38980</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -8178,7 +8379,7 @@
         <v>38660</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -8204,7 +8405,7 @@
         <v>38987</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -8230,7 +8431,7 @@
         <v>37237</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -8256,7 +8457,7 @@
         <v>38828</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -8282,7 +8483,7 @@
         <v>38758</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -8308,7 +8509,7 @@
         <v>37285</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -8334,7 +8535,7 @@
         <v>37418</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -8360,7 +8561,7 @@
         <v>38810</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="2:11">
@@ -8386,7 +8587,7 @@
         <v>37421</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="2:11">
@@ -8412,7 +8613,7 @@
         <v>37335</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="2:11">
@@ -8438,7 +8639,7 @@
         <v>38847</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -8464,7 +8665,7 @@
         <v>38672</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -8490,7 +8691,7 @@
         <v>40788</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -8516,7 +8717,7 @@
         <v>39157</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -8542,7 +8743,7 @@
         <v>38889</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -8568,7 +8769,7 @@
         <v>38912</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -8594,7 +8795,7 @@
         <v>40765</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -8620,7 +8821,7 @@
         <v>40080</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -8646,7 +8847,7 @@
         <v>40240</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -8672,7 +8873,7 @@
         <v>39605</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -8698,7 +8899,7 @@
         <v>40826</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="2:11">
@@ -8724,7 +8925,7 @@
         <v>39708</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="2:11">
@@ -8750,7 +8951,7 @@
         <v>40102</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="2:11">
@@ -8776,7 +8977,7 @@
         <v>39542</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="2:11">
@@ -8802,7 +9003,7 @@
         <v>41030</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="2:11">
@@ -8828,7 +9029,7 @@
         <v>40200</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="2:11">
@@ -8854,7 +9055,7 @@
         <v>39779</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -8880,7 +9081,7 @@
         <v>38891</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="2:11">
@@ -8906,7 +9107,7 @@
         <v>39168</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="2:11">
@@ -8932,7 +9133,7 @@
         <v>40816</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="2:11">
@@ -8958,7 +9159,7 @@
         <v>41278</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" spans="2:11">
@@ -8984,7 +9185,7 @@
         <v>40563</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -9010,7 +9211,7 @@
         <v>42269</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="2:11">
@@ -9036,7 +9237,7 @@
         <v>40869</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="2:11">
@@ -9062,7 +9263,7 @@
         <v>42830</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="2:11">
@@ -9088,7 +9289,7 @@
         <v>40710</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="2:11">
@@ -9114,7 +9315,7 @@
         <v>42699</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="2:11">
@@ -9140,7 +9341,7 @@
         <v>41765</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -9166,7 +9367,7 @@
         <v>41157</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="2:11">
@@ -9192,7 +9393,7 @@
         <v>42352</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -9218,7 +9419,7 @@
         <v>40809</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -9244,7 +9445,7 @@
         <v>40683</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -9270,7 +9471,7 @@
         <v>41568</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -9296,7 +9497,7 @@
         <v>41914</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -9322,7 +9523,7 @@
         <v>41312</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" spans="2:11">
@@ -9348,7 +9549,7 @@
         <v>42332</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -9374,7 +9575,7 @@
         <v>42951</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="2:11">
@@ -9400,7 +9601,7 @@
         <v>41873</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="2:11">
@@ -9426,7 +9627,7 @@
         <v>40703</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="2:11">
@@ -9452,7 +9653,7 @@
         <v>41337</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="2:11">
@@ -9478,7 +9679,7 @@
         <v>42009</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="78" spans="2:11">
@@ -9504,7 +9705,7 @@
         <v>40883</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="2:11">
@@ -9530,7 +9731,7 @@
         <v>42667</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80" spans="2:11">
@@ -9556,7 +9757,7 @@
         <v>41589</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -9565,7 +9766,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9574,7 +9775,7 @@
   <dimension ref="B1:P80"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9606,685 +9807,685 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="M2" s="71" t="s">
-        <v>495</v>
-      </c>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="73"/>
+      <c r="M2" s="74" t="s">
+        <v>493</v>
+      </c>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="76"/>
     </row>
     <row r="3" spans="2:16" ht="6" customHeight="1">
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="57"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>473</v>
-      </c>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="66" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>599</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>600</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="66" t="s">
         <v>601</v>
       </c>
-      <c r="E4" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="F4" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="67" t="s">
-        <v>603</v>
-      </c>
-      <c r="I4" s="67" t="s">
-        <v>470</v>
-      </c>
-      <c r="J4" s="67" t="s">
-        <v>469</v>
-      </c>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>501</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>489</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>451</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="68">
+        <v>25248</v>
+      </c>
+      <c r="H5" s="69">
+        <v>49</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="68">
+        <v>35270</v>
+      </c>
+      <c r="K5" s="66" t="s">
         <v>503</v>
       </c>
-      <c r="M4" s="58" t="s">
-        <v>491</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="P4" s="59" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>453</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="69">
-        <v>25248</v>
-      </c>
-      <c r="H5" s="70">
-        <v>49</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="J5" s="69">
-        <v>35270</v>
-      </c>
-      <c r="K5" s="67" t="s">
-        <v>505</v>
-      </c>
-      <c r="M5" s="60"/>
+      <c r="M5" s="59"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="61"/>
+      <c r="P5" s="60"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="67" t="s">
-        <v>514</v>
-      </c>
-      <c r="E6" s="67" t="s">
+      <c r="D6" s="66" t="s">
+        <v>512</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="68">
+        <v>27191</v>
+      </c>
+      <c r="H6" s="69">
+        <v>44</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" s="68">
+        <v>36993</v>
+      </c>
+      <c r="K6" s="66" t="s">
         <v>504</v>
       </c>
-      <c r="F6" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="69">
-        <v>27191</v>
-      </c>
-      <c r="H6" s="70">
-        <v>44</v>
-      </c>
-      <c r="I6" s="67" t="s">
-        <v>187</v>
-      </c>
-      <c r="J6" s="69">
-        <v>36993</v>
-      </c>
-      <c r="K6" s="67" t="s">
-        <v>506</v>
-      </c>
-      <c r="M6" s="60"/>
+      <c r="M6" s="59"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="61"/>
+      <c r="P6" s="60"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="F7" s="67" t="s">
+      <c r="D7" s="66" t="s">
+        <v>515</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="F7" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="68">
         <v>28944</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="69">
         <v>39</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="J7" s="69">
+      <c r="J7" s="68">
         <v>38828</v>
       </c>
-      <c r="K7" s="67" t="s">
-        <v>507</v>
-      </c>
-      <c r="M7" s="60"/>
+      <c r="K7" s="66" t="s">
+        <v>505</v>
+      </c>
+      <c r="M7" s="59"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="61"/>
+      <c r="P7" s="60"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="67" t="s">
-        <v>539</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="F8" s="67" t="s">
+      <c r="D8" s="66" t="s">
+        <v>537</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="F8" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="68">
         <v>30539</v>
       </c>
-      <c r="H8" s="70">
+      <c r="H8" s="69">
         <v>35</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="68">
         <v>40240</v>
       </c>
-      <c r="K8" s="67" t="s">
-        <v>508</v>
-      </c>
-      <c r="M8" s="60"/>
+      <c r="K8" s="66" t="s">
+        <v>506</v>
+      </c>
+      <c r="M8" s="59"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="61"/>
+      <c r="P8" s="60"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="66" t="s">
+        <v>507</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>508</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="68">
+        <v>31441</v>
+      </c>
+      <c r="H9" s="69">
+        <v>32</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="68">
+        <v>41157</v>
+      </c>
+      <c r="K9" s="66" t="s">
         <v>509</v>
       </c>
-      <c r="E9" s="67" t="s">
-        <v>510</v>
-      </c>
-      <c r="F9" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="69">
-        <v>31441</v>
-      </c>
-      <c r="H9" s="70">
-        <v>32</v>
-      </c>
-      <c r="I9" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="69">
-        <v>41157</v>
-      </c>
-      <c r="K9" s="67" t="s">
-        <v>511</v>
-      </c>
-      <c r="M9" s="60"/>
+      <c r="M9" s="59"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="61"/>
+      <c r="P9" s="60"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="67" t="s">
-        <v>509</v>
-      </c>
-      <c r="E10" s="67" t="s">
+      <c r="D10" s="66" t="s">
+        <v>507</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>508</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="68">
+        <v>33067</v>
+      </c>
+      <c r="H10" s="69">
+        <v>28</v>
+      </c>
+      <c r="I10" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="J10" s="68">
+        <v>42352</v>
+      </c>
+      <c r="K10" s="66" t="s">
         <v>510</v>
       </c>
-      <c r="F10" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="69">
-        <v>33067</v>
-      </c>
-      <c r="H10" s="70">
-        <v>28</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="J10" s="69">
-        <v>42352</v>
-      </c>
-      <c r="K10" s="67" t="s">
-        <v>512</v>
-      </c>
-      <c r="M10" s="60"/>
+      <c r="M10" s="59"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="61"/>
+      <c r="P10" s="60"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="67" t="s">
-        <v>453</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="F11" s="67" t="s">
+      <c r="D11" s="66" t="s">
+        <v>451</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>508</v>
+      </c>
+      <c r="F11" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="68">
         <v>25980</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="69">
         <v>47</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="68">
         <v>35908</v>
       </c>
-      <c r="K11" s="67" t="s">
-        <v>513</v>
-      </c>
-      <c r="M11" s="60"/>
+      <c r="K11" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="M11" s="59"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="61"/>
+      <c r="P11" s="60"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="67" t="s">
-        <v>514</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="F12" s="67" t="s">
+      <c r="D12" s="66" t="s">
+        <v>512</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="F12" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="68">
         <v>27186</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="69">
         <v>44</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="68">
         <v>36313</v>
       </c>
-      <c r="K12" s="67" t="s">
-        <v>515</v>
-      </c>
-      <c r="M12" s="60"/>
+      <c r="K12" s="66" t="s">
+        <v>513</v>
+      </c>
+      <c r="M12" s="59"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="61"/>
+      <c r="P12" s="60"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="66" t="s">
+        <v>512</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>508</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="68">
+        <v>27389</v>
+      </c>
+      <c r="H13" s="69">
+        <v>44</v>
+      </c>
+      <c r="I13" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13" s="68">
+        <v>37421</v>
+      </c>
+      <c r="K13" s="66" t="s">
         <v>514</v>
       </c>
-      <c r="E13" s="67" t="s">
-        <v>510</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="69">
-        <v>27389</v>
-      </c>
-      <c r="H13" s="70">
-        <v>44</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="J13" s="69">
-        <v>37421</v>
-      </c>
-      <c r="K13" s="67" t="s">
-        <v>516</v>
-      </c>
-      <c r="M13" s="60"/>
+      <c r="M13" s="59"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="61"/>
+      <c r="P13" s="60"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="F14" s="67" t="s">
+      <c r="D14" s="66" t="s">
+        <v>515</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="F14" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G14" s="68">
         <v>27275</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="69">
         <v>44</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="68">
         <v>37421</v>
       </c>
-      <c r="K14" s="67" t="s">
-        <v>518</v>
-      </c>
-      <c r="M14" s="60"/>
+      <c r="K14" s="66" t="s">
+        <v>516</v>
+      </c>
+      <c r="M14" s="59"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="61"/>
+      <c r="P14" s="60"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="68" t="s">
-        <v>604</v>
-      </c>
-      <c r="C15" s="67" t="s">
+      <c r="B15" s="67" t="s">
+        <v>602</v>
+      </c>
+      <c r="C15" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="66" t="s">
+        <v>515</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="68">
+        <v>27265</v>
+      </c>
+      <c r="H15" s="69">
+        <v>44</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" s="68">
+        <v>37335</v>
+      </c>
+      <c r="K15" s="66" t="s">
         <v>517</v>
       </c>
-      <c r="E15" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="69">
-        <v>27265</v>
-      </c>
-      <c r="H15" s="70">
-        <v>44</v>
-      </c>
-      <c r="I15" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="J15" s="69">
-        <v>37335</v>
-      </c>
-      <c r="K15" s="67" t="s">
-        <v>519</v>
-      </c>
-      <c r="M15" s="60"/>
+      <c r="M15" s="59"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="61"/>
+      <c r="P15" s="60"/>
     </row>
     <row r="16" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="67" t="s">
-        <v>539</v>
-      </c>
-      <c r="E16" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="F16" s="67" t="s">
+      <c r="D16" s="66" t="s">
+        <v>537</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="68">
+        <v>31498</v>
+      </c>
+      <c r="H16" s="69">
+        <v>32</v>
+      </c>
+      <c r="I16" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16" s="68">
+        <v>41030</v>
+      </c>
+      <c r="K16" s="66" t="s">
+        <v>518</v>
+      </c>
+      <c r="M16" s="61"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="63"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>603</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="F17" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="69">
-        <v>31498</v>
-      </c>
-      <c r="H16" s="70">
-        <v>32</v>
-      </c>
-      <c r="I16" s="67" t="s">
-        <v>198</v>
-      </c>
-      <c r="J16" s="69">
-        <v>41030</v>
-      </c>
-      <c r="K16" s="67" t="s">
+      <c r="G17" s="68">
+        <v>30597</v>
+      </c>
+      <c r="H17" s="69">
+        <v>35</v>
+      </c>
+      <c r="I17" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" s="68">
+        <v>40200</v>
+      </c>
+      <c r="K17" s="66" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>537</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="68">
+        <v>30341</v>
+      </c>
+      <c r="H18" s="69">
+        <v>35</v>
+      </c>
+      <c r="I18" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="J18" s="68">
+        <v>39779</v>
+      </c>
+      <c r="K18" s="66" t="s">
         <v>520</v>
       </c>
-      <c r="M16" s="62"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="64"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="67" t="s">
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="67" t="s">
-        <v>605</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="F17" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="69">
+      <c r="D19" s="66" t="s">
+        <v>507</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="68">
+        <v>32356</v>
+      </c>
+      <c r="H19" s="69">
+        <v>30</v>
+      </c>
+      <c r="I19" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" s="68">
+        <v>42332</v>
+      </c>
+      <c r="K19" s="66" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>507</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="68">
+        <v>32876</v>
+      </c>
+      <c r="H20" s="69">
+        <v>28</v>
+      </c>
+      <c r="I20" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" s="68">
+        <v>42951</v>
+      </c>
+      <c r="K20" s="66" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>507</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="68">
+        <v>32481</v>
+      </c>
+      <c r="H21" s="69">
+        <v>30</v>
+      </c>
+      <c r="I21" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" s="68">
+        <v>41873</v>
+      </c>
+      <c r="K21" s="66" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>507</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>508</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="68">
         <v>30597</v>
       </c>
-      <c r="H17" s="70">
+      <c r="H22" s="69">
         <v>35</v>
       </c>
-      <c r="I17" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="J17" s="69">
-        <v>40200</v>
-      </c>
-      <c r="K17" s="67" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>539</v>
-      </c>
-      <c r="E18" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="F18" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="69">
-        <v>30341</v>
-      </c>
-      <c r="H18" s="70">
-        <v>35</v>
-      </c>
-      <c r="I18" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="J18" s="69">
-        <v>39779</v>
-      </c>
-      <c r="K18" s="67" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="67" t="s">
-        <v>509</v>
-      </c>
-      <c r="E19" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="F19" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="69">
-        <v>32356</v>
-      </c>
-      <c r="H19" s="70">
-        <v>30</v>
-      </c>
-      <c r="I19" s="67" t="s">
+      <c r="I22" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="J19" s="69">
-        <v>42332</v>
-      </c>
-      <c r="K19" s="67" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>509</v>
-      </c>
-      <c r="E20" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="F20" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20" s="69">
-        <v>32876</v>
-      </c>
-      <c r="H20" s="70">
-        <v>28</v>
-      </c>
-      <c r="I20" s="67" t="s">
-        <v>200</v>
-      </c>
-      <c r="J20" s="69">
-        <v>42951</v>
-      </c>
-      <c r="K20" s="67" t="s">
+      <c r="J22" s="68">
+        <v>40703</v>
+      </c>
+      <c r="K22" s="66" t="s">
         <v>524</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="67" t="s">
-        <v>509</v>
-      </c>
-      <c r="E21" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="F21" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" s="69">
-        <v>32481</v>
-      </c>
-      <c r="H21" s="70">
-        <v>30</v>
-      </c>
-      <c r="I21" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="J21" s="69">
-        <v>41873</v>
-      </c>
-      <c r="K21" s="67" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="67" t="s">
-        <v>509</v>
-      </c>
-      <c r="E22" s="67" t="s">
-        <v>510</v>
-      </c>
-      <c r="F22" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="69">
-        <v>30597</v>
-      </c>
-      <c r="H22" s="70">
-        <v>35</v>
-      </c>
-      <c r="I22" s="67" t="s">
-        <v>187</v>
-      </c>
-      <c r="J22" s="69">
-        <v>40703</v>
-      </c>
-      <c r="K22" s="67" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -10292,13 +10493,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>111</v>
@@ -10306,7 +10507,7 @@
       <c r="G23" s="7">
         <v>26558</v>
       </c>
-      <c r="H23" s="65">
+      <c r="H23" s="64">
         <v>46</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -10316,7 +10517,7 @@
         <v>35786</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="2:11">
@@ -10324,13 +10525,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>181</v>
@@ -10338,7 +10539,7 @@
       <c r="G24" s="7">
         <v>26499</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="64">
         <v>46</v>
       </c>
       <c r="I24" s="3" t="s">
@@ -10348,21 +10549,21 @@
         <v>35613</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>128</v>
@@ -10370,7 +10571,7 @@
       <c r="G25" s="7">
         <v>29040</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="64">
         <v>39</v>
       </c>
       <c r="I25" s="3" t="s">
@@ -10380,7 +10581,7 @@
         <v>38660</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -10388,13 +10589,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>185</v>
@@ -10402,7 +10603,7 @@
       <c r="G26" s="7">
         <v>29408</v>
       </c>
-      <c r="H26" s="65">
+      <c r="H26" s="64">
         <v>38</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -10412,7 +10613,7 @@
         <v>38889</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -10420,13 +10621,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>184</v>
@@ -10434,7 +10635,7 @@
       <c r="G27" s="7">
         <v>28611</v>
       </c>
-      <c r="H27" s="65">
+      <c r="H27" s="64">
         <v>40</v>
       </c>
       <c r="I27" s="3" t="s">
@@ -10444,7 +10645,7 @@
         <v>38912</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -10452,13 +10653,13 @@
         <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>157</v>
@@ -10466,7 +10667,7 @@
       <c r="G28" s="7">
         <v>30818</v>
       </c>
-      <c r="H28" s="65">
+      <c r="H28" s="64">
         <v>34</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -10476,7 +10677,7 @@
         <v>40869</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -10484,13 +10685,13 @@
         <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>158</v>
@@ -10498,7 +10699,7 @@
       <c r="G29" s="7">
         <v>33096</v>
       </c>
-      <c r="H29" s="65">
+      <c r="H29" s="64">
         <v>28</v>
       </c>
       <c r="I29" s="3" t="s">
@@ -10508,21 +10709,21 @@
         <v>42830</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>110</v>
@@ -10530,7 +10731,7 @@
       <c r="G30" s="7">
         <v>26056</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="64">
         <v>47</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -10540,7 +10741,7 @@
         <v>35622</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -10548,13 +10749,13 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>119</v>
@@ -10562,7 +10763,7 @@
       <c r="G31" s="7">
         <v>26055</v>
       </c>
-      <c r="H31" s="65">
+      <c r="H31" s="64">
         <v>47</v>
       </c>
       <c r="I31" s="3" t="s">
@@ -10572,21 +10773,21 @@
         <v>35727</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>127</v>
@@ -10594,7 +10795,7 @@
       <c r="G32" s="7">
         <v>28595</v>
       </c>
-      <c r="H32" s="65">
+      <c r="H32" s="64">
         <v>40</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -10604,7 +10805,7 @@
         <v>38980</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -10612,13 +10813,13 @@
         <v>3</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>139</v>
@@ -10626,7 +10827,7 @@
       <c r="G33" s="7">
         <v>29095</v>
       </c>
-      <c r="H33" s="65">
+      <c r="H33" s="64">
         <v>39</v>
       </c>
       <c r="I33" s="3" t="s">
@@ -10636,7 +10837,7 @@
         <v>39157</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -10644,13 +10845,13 @@
         <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>155</v>
@@ -10658,7 +10859,7 @@
       <c r="G34" s="7">
         <v>30608</v>
       </c>
-      <c r="H34" s="65">
+      <c r="H34" s="64">
         <v>35</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -10668,7 +10869,7 @@
         <v>40563</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="2:11">
@@ -10676,13 +10877,13 @@
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>156</v>
@@ -10690,7 +10891,7 @@
       <c r="G35" s="7">
         <v>31927</v>
       </c>
-      <c r="H35" s="65">
+      <c r="H35" s="64">
         <v>31</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -10700,7 +10901,7 @@
         <v>42269</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="2:11">
@@ -10708,13 +10909,13 @@
         <v>21</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>115</v>
@@ -10722,7 +10923,7 @@
       <c r="G36" s="7">
         <v>25680</v>
       </c>
-      <c r="H36" s="65">
+      <c r="H36" s="64">
         <v>48</v>
       </c>
       <c r="I36" s="3" t="s">
@@ -10732,7 +10933,7 @@
         <v>35083</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="37" spans="2:11">
@@ -10740,13 +10941,13 @@
         <v>22</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>122</v>
@@ -10754,7 +10955,7 @@
       <c r="G37" s="7">
         <v>26709</v>
       </c>
-      <c r="H37" s="65">
+      <c r="H37" s="64">
         <v>45</v>
       </c>
       <c r="I37" s="3" t="s">
@@ -10764,21 +10965,21 @@
         <v>37152</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>130</v>
@@ -10786,7 +10987,7 @@
       <c r="G38" s="7">
         <v>29529</v>
       </c>
-      <c r="H38" s="65">
+      <c r="H38" s="64">
         <v>38</v>
       </c>
       <c r="I38" s="3" t="s">
@@ -10796,7 +10997,7 @@
         <v>38758</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -10804,13 +11005,13 @@
         <v>23</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>131</v>
@@ -10818,7 +11019,7 @@
       <c r="G39" s="7">
         <v>28114</v>
       </c>
-      <c r="H39" s="65">
+      <c r="H39" s="64">
         <v>42</v>
       </c>
       <c r="I39" s="3" t="s">
@@ -10828,7 +11029,7 @@
         <v>37285</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -10836,13 +11037,13 @@
         <v>24</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>143</v>
@@ -10850,7 +11051,7 @@
       <c r="G40" s="7">
         <v>29749</v>
       </c>
-      <c r="H40" s="65">
+      <c r="H40" s="64">
         <v>37</v>
       </c>
       <c r="I40" s="3" t="s">
@@ -10860,7 +11061,7 @@
         <v>39605</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -10868,13 +11069,13 @@
         <v>25</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>144</v>
@@ -10882,7 +11083,7 @@
       <c r="G41" s="7">
         <v>30789</v>
       </c>
-      <c r="H41" s="65">
+      <c r="H41" s="64">
         <v>34</v>
       </c>
       <c r="I41" s="3" t="s">
@@ -10892,7 +11093,7 @@
         <v>40826</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -10900,13 +11101,13 @@
         <v>70</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>164</v>
@@ -10914,7 +11115,7 @@
       <c r="G42" s="7">
         <v>31201</v>
       </c>
-      <c r="H42" s="65">
+      <c r="H42" s="64">
         <v>33</v>
       </c>
       <c r="I42" s="3" t="s">
@@ -10924,7 +11125,7 @@
         <v>40809</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -10932,13 +11133,13 @@
         <v>26</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>165</v>
@@ -10946,7 +11147,7 @@
       <c r="G43" s="7">
         <v>30805</v>
       </c>
-      <c r="H43" s="65">
+      <c r="H43" s="64">
         <v>34</v>
       </c>
       <c r="I43" s="3" t="s">
@@ -10956,7 +11157,7 @@
         <v>40683</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -10967,10 +11168,10 @@
         <v>89</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>116</v>
@@ -10978,7 +11179,7 @@
       <c r="G44" s="7">
         <v>26188</v>
       </c>
-      <c r="H44" s="65">
+      <c r="H44" s="64">
         <v>47</v>
       </c>
       <c r="I44" s="3" t="s">
@@ -10988,7 +11189,7 @@
         <v>36441</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -10999,10 +11200,10 @@
         <v>89</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>123</v>
@@ -11010,7 +11211,7 @@
       <c r="G45" s="7">
         <v>27185</v>
       </c>
-      <c r="H45" s="65">
+      <c r="H45" s="64">
         <v>44</v>
       </c>
       <c r="I45" s="3" t="s">
@@ -11020,7 +11221,7 @@
         <v>37049</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -11031,10 +11232,10 @@
         <v>89</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>132</v>
@@ -11042,7 +11243,7 @@
       <c r="G46" s="7">
         <v>28146</v>
       </c>
-      <c r="H46" s="65">
+      <c r="H46" s="64">
         <v>41</v>
       </c>
       <c r="I46" s="3" t="s">
@@ -11052,7 +11253,7 @@
         <v>37418</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -11063,10 +11264,10 @@
         <v>89</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>133</v>
@@ -11074,7 +11275,7 @@
       <c r="G47" s="7">
         <v>29424</v>
       </c>
-      <c r="H47" s="65">
+      <c r="H47" s="64">
         <v>38</v>
       </c>
       <c r="I47" s="3" t="s">
@@ -11084,7 +11285,7 @@
         <v>38810</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="2:11">
@@ -11095,10 +11296,10 @@
         <v>89</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>145</v>
@@ -11106,7 +11307,7 @@
       <c r="G48" s="7">
         <v>29790</v>
       </c>
-      <c r="H48" s="65">
+      <c r="H48" s="64">
         <v>37</v>
       </c>
       <c r="I48" s="3" t="s">
@@ -11116,7 +11317,7 @@
         <v>39708</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="2:11">
@@ -11127,10 +11328,10 @@
         <v>89</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>146</v>
@@ -11138,7 +11339,7 @@
       <c r="G49" s="7">
         <v>29905</v>
       </c>
-      <c r="H49" s="65">
+      <c r="H49" s="64">
         <v>37</v>
       </c>
       <c r="I49" s="3" t="s">
@@ -11148,7 +11349,7 @@
         <v>40102</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="50" spans="2:11">
@@ -11159,10 +11360,10 @@
         <v>89</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>147</v>
@@ -11170,7 +11371,7 @@
       <c r="G50" s="7">
         <v>30334</v>
       </c>
-      <c r="H50" s="65">
+      <c r="H50" s="64">
         <v>35</v>
       </c>
       <c r="I50" s="3" t="s">
@@ -11180,7 +11381,7 @@
         <v>39542</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="51" spans="2:11">
@@ -11191,10 +11392,10 @@
         <v>89</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>166</v>
@@ -11202,7 +11403,7 @@
       <c r="G51" s="7">
         <v>31941</v>
       </c>
-      <c r="H51" s="65">
+      <c r="H51" s="64">
         <v>31</v>
       </c>
       <c r="I51" s="3" t="s">
@@ -11212,21 +11413,21 @@
         <v>41568</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>167</v>
@@ -11234,7 +11435,7 @@
       <c r="G52" s="7">
         <v>31600</v>
       </c>
-      <c r="H52" s="65">
+      <c r="H52" s="64">
         <v>32</v>
       </c>
       <c r="I52" s="3" t="s">
@@ -11244,7 +11445,7 @@
         <v>41914</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="53" spans="2:11">
@@ -11255,10 +11456,10 @@
         <v>89</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>168</v>
@@ -11266,7 +11467,7 @@
       <c r="G53" s="7">
         <v>31404</v>
       </c>
-      <c r="H53" s="65">
+      <c r="H53" s="64">
         <v>33</v>
       </c>
       <c r="I53" s="3" t="s">
@@ -11276,7 +11477,7 @@
         <v>41312</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -11284,13 +11485,13 @@
         <v>46</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>118</v>
@@ -11298,7 +11499,7 @@
       <c r="G54" s="7">
         <v>25239</v>
       </c>
-      <c r="H54" s="65">
+      <c r="H54" s="64">
         <v>49</v>
       </c>
       <c r="I54" s="3" t="s">
@@ -11308,7 +11509,7 @@
         <v>35257</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="55" spans="2:11">
@@ -11316,13 +11517,13 @@
         <v>47</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>179</v>
@@ -11330,7 +11531,7 @@
       <c r="G55" s="7">
         <v>27422</v>
       </c>
-      <c r="H55" s="65">
+      <c r="H55" s="64">
         <v>43</v>
       </c>
       <c r="I55" s="3" t="s">
@@ -11340,7 +11541,7 @@
         <v>36843</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="56" spans="2:11">
@@ -11348,13 +11549,13 @@
         <v>48</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>180</v>
@@ -11362,7 +11563,7 @@
       <c r="G56" s="7">
         <v>26635</v>
       </c>
-      <c r="H56" s="65">
+      <c r="H56" s="64">
         <v>46</v>
       </c>
       <c r="I56" s="3" t="s">
@@ -11372,7 +11573,7 @@
         <v>36171</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="2:11">
@@ -11380,13 +11581,13 @@
         <v>49</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>136</v>
@@ -11394,7 +11595,7 @@
       <c r="G57" s="7">
         <v>29875</v>
       </c>
-      <c r="H57" s="65">
+      <c r="H57" s="64">
         <v>37</v>
       </c>
       <c r="I57" s="3" t="s">
@@ -11404,7 +11605,7 @@
         <v>38847</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="2:11">
@@ -11412,13 +11613,13 @@
         <v>50</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>137</v>
@@ -11426,7 +11627,7 @@
       <c r="G58" s="7">
         <v>29194</v>
       </c>
-      <c r="H58" s="65">
+      <c r="H58" s="64">
         <v>39</v>
       </c>
       <c r="I58" s="3" t="s">
@@ -11436,7 +11637,7 @@
         <v>38672</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -11444,13 +11645,13 @@
         <v>51</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>151</v>
@@ -11458,7 +11659,7 @@
       <c r="G59" s="7">
         <v>29681</v>
       </c>
-      <c r="H59" s="65">
+      <c r="H59" s="64">
         <v>37</v>
       </c>
       <c r="I59" s="3" t="s">
@@ -11468,7 +11669,7 @@
         <v>38891</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="2:11">
@@ -11476,13 +11677,13 @@
         <v>52</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>152</v>
@@ -11490,7 +11691,7 @@
       <c r="G60" s="7">
         <v>29729</v>
       </c>
-      <c r="H60" s="65">
+      <c r="H60" s="64">
         <v>37</v>
       </c>
       <c r="I60" s="3" t="s">
@@ -11500,7 +11701,7 @@
         <v>39168</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61" spans="2:11">
@@ -11508,13 +11709,13 @@
         <v>53</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>153</v>
@@ -11522,7 +11723,7 @@
       <c r="G61" s="7">
         <v>30815</v>
       </c>
-      <c r="H61" s="65">
+      <c r="H61" s="64">
         <v>34</v>
       </c>
       <c r="I61" s="3" t="s">
@@ -11532,21 +11733,21 @@
         <v>40816</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>173</v>
@@ -11554,7 +11755,7 @@
       <c r="G62" s="7">
         <v>32313</v>
       </c>
-      <c r="H62" s="65">
+      <c r="H62" s="64">
         <v>30</v>
       </c>
       <c r="I62" s="3" t="s">
@@ -11564,7 +11765,7 @@
         <v>41337</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="2:11">
@@ -11572,13 +11773,13 @@
         <v>54</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>174</v>
@@ -11586,7 +11787,7 @@
       <c r="G63" s="7">
         <v>33237</v>
       </c>
-      <c r="H63" s="65">
+      <c r="H63" s="64">
         <v>28</v>
       </c>
       <c r="I63" s="3" t="s">
@@ -11596,7 +11797,7 @@
         <v>42009</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" spans="2:11">
@@ -11604,13 +11805,13 @@
         <v>55</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>175</v>
@@ -11618,7 +11819,7 @@
       <c r="G64" s="7">
         <v>30602</v>
       </c>
-      <c r="H64" s="65">
+      <c r="H64" s="64">
         <v>35</v>
       </c>
       <c r="I64" s="3" t="s">
@@ -11628,7 +11829,7 @@
         <v>40883</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -11636,13 +11837,13 @@
         <v>56</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>176</v>
@@ -11650,7 +11851,7 @@
       <c r="G65" s="7">
         <v>32985</v>
       </c>
-      <c r="H65" s="65">
+      <c r="H65" s="64">
         <v>28</v>
       </c>
       <c r="I65" s="3" t="s">
@@ -11660,21 +11861,21 @@
         <v>42667</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>177</v>
@@ -11682,7 +11883,7 @@
       <c r="G66" s="7">
         <v>31247</v>
       </c>
-      <c r="H66" s="65">
+      <c r="H66" s="64">
         <v>33</v>
       </c>
       <c r="I66" s="3" t="s">
@@ -11692,7 +11893,7 @@
         <v>41589</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -11700,13 +11901,13 @@
         <v>12</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>112</v>
@@ -11714,7 +11915,7 @@
       <c r="G67" s="7">
         <v>26219</v>
       </c>
-      <c r="H67" s="65">
+      <c r="H67" s="64">
         <v>47</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -11724,7 +11925,7 @@
         <v>35235</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -11732,13 +11933,13 @@
         <v>13</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>120</v>
@@ -11746,7 +11947,7 @@
       <c r="G68" s="7">
         <v>26589</v>
       </c>
-      <c r="H68" s="65">
+      <c r="H68" s="64">
         <v>46</v>
       </c>
       <c r="I68" s="3" t="s">
@@ -11756,7 +11957,7 @@
         <v>36255</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -11764,13 +11965,13 @@
         <v>14</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>129</v>
@@ -11778,7 +11979,7 @@
       <c r="G69" s="7">
         <v>29135</v>
       </c>
-      <c r="H69" s="65">
+      <c r="H69" s="64">
         <v>39</v>
       </c>
       <c r="I69" s="3" t="s">
@@ -11788,21 +11989,21 @@
         <v>38987</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>140</v>
@@ -11810,7 +12011,7 @@
       <c r="G70" s="7">
         <v>30653</v>
       </c>
-      <c r="H70" s="65">
+      <c r="H70" s="64">
         <v>35</v>
       </c>
       <c r="I70" s="3" t="s">
@@ -11820,21 +12021,21 @@
         <v>40765</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>159</v>
@@ -11842,7 +12043,7 @@
       <c r="G71" s="7">
         <v>31492</v>
       </c>
-      <c r="H71" s="65">
+      <c r="H71" s="64">
         <v>32</v>
       </c>
       <c r="I71" s="3" t="s">
@@ -11852,21 +12053,21 @@
         <v>40710</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>160</v>
@@ -11874,7 +12075,7 @@
       <c r="G72" s="7">
         <v>33386</v>
       </c>
-      <c r="H72" s="65">
+      <c r="H72" s="64">
         <v>27</v>
       </c>
       <c r="I72" s="3" t="s">
@@ -11884,21 +12085,21 @@
         <v>42699</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>178</v>
@@ -11906,7 +12107,7 @@
       <c r="G73" s="7">
         <v>26651</v>
       </c>
-      <c r="H73" s="65">
+      <c r="H73" s="64">
         <v>46</v>
       </c>
       <c r="I73" s="3" t="s">
@@ -11916,7 +12117,7 @@
         <v>35997</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74" spans="2:11">
@@ -11927,10 +12128,10 @@
         <v>86</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>126</v>
@@ -11938,7 +12139,7 @@
       <c r="G74" s="7">
         <v>28274</v>
       </c>
-      <c r="H74" s="65">
+      <c r="H74" s="64">
         <v>41</v>
       </c>
       <c r="I74" s="3" t="s">
@@ -11948,7 +12149,7 @@
         <v>37523</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75" spans="2:11">
@@ -11959,10 +12160,10 @@
         <v>86</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>138</v>
@@ -11970,7 +12171,7 @@
       <c r="G75" s="7">
         <v>30781</v>
       </c>
-      <c r="H75" s="65">
+      <c r="H75" s="64">
         <v>34</v>
       </c>
       <c r="I75" s="3" t="s">
@@ -11980,21 +12181,21 @@
         <v>40788</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>154</v>
@@ -12002,7 +12203,7 @@
       <c r="G76" s="7">
         <v>31565</v>
       </c>
-      <c r="H76" s="65">
+      <c r="H76" s="64">
         <v>32</v>
       </c>
       <c r="I76" s="3" t="s">
@@ -12012,21 +12213,21 @@
         <v>41278</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>113</v>
@@ -12034,7 +12235,7 @@
       <c r="G77" s="7">
         <v>26335</v>
       </c>
-      <c r="H77" s="65">
+      <c r="H77" s="64">
         <v>46</v>
       </c>
       <c r="I77" s="3" t="s">
@@ -12044,21 +12245,21 @@
         <v>36419</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>182</v>
@@ -12066,7 +12267,7 @@
       <c r="G78" s="7">
         <v>28121</v>
       </c>
-      <c r="H78" s="65">
+      <c r="H78" s="64">
         <v>42</v>
       </c>
       <c r="I78" s="3" t="s">
@@ -12076,21 +12277,21 @@
         <v>37237</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>141</v>
@@ -12098,7 +12299,7 @@
       <c r="G79" s="7">
         <v>30285</v>
       </c>
-      <c r="H79" s="65">
+      <c r="H79" s="64">
         <v>36</v>
       </c>
       <c r="I79" s="3" t="s">
@@ -12108,21 +12309,21 @@
         <v>40080</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>161</v>
@@ -12130,7 +12331,7 @@
       <c r="G80" s="7">
         <v>31442</v>
       </c>
-      <c r="H80" s="65">
+      <c r="H80" s="64">
         <v>32</v>
       </c>
       <c r="I80" s="3" t="s">
@@ -12140,7 +12341,7 @@
         <v>41765</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -12149,7 +12350,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="41" max="16383" man="1"/>
   </rowBreaks>
@@ -12161,7 +12362,7 @@
   <dimension ref="B1:F32"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12176,54 +12377,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="38.25">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="2:6" ht="6" customHeight="1">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:6" ht="27.75" customHeight="1">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>219</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>256</v>
+      <c r="E4" s="28" t="s">
+        <v>254</v>
       </c>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B5" s="76"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="22" t="s">
         <v>220</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>211</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -12231,78 +12432,78 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B6" s="76"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
     </row>
     <row r="7" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B7" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>219</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>223</v>
       </c>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B8" s="76"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="22" t="s">
         <v>222</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>205</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" ht="7.5" customHeight="1"/>
     <row r="10" spans="2:6" ht="27.75" customHeight="1">
-      <c r="B10" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
+      <c r="B10" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
     </row>
     <row r="11" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="81"/>
+      <c r="E11" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B12" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B12" s="25" t="s">
+      <c r="D12" s="81"/>
+      <c r="E12" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C12" s="79" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="31" t="s">
+      <c r="F12" s="19" t="s">
         <v>228</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="7.5" customHeight="1">
@@ -12313,109 +12514,111 @@
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="2:6" ht="27.75" customHeight="1">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
     </row>
     <row r="15" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="26" t="s">
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="25" t="s">
         <v>216</v>
       </c>
       <c r="F15" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B16" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B17" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+    </row>
+    <row r="18" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B18" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+    </row>
+    <row r="19" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B19" s="84"/>
+      <c r="C19" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="83" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+    </row>
+    <row r="20" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B20" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B21" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="78" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B16" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="26" t="s">
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+    </row>
+    <row r="22" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B22" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B17" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-    </row>
-    <row r="18" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B18" s="82" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D18" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-    </row>
-    <row r="19" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B19" s="82"/>
-      <c r="C19" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="81" t="s">
-        <v>237</v>
-      </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-    </row>
-    <row r="20" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B20" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B21" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-    </row>
-    <row r="22" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B22" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
     </row>
     <row r="23" spans="2:6" ht="7.5" customHeight="1">
       <c r="B23" s="14"/>
@@ -12425,65 +12628,65 @@
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="2:6" ht="27.75" customHeight="1">
-      <c r="B24" s="75" t="s">
-        <v>251</v>
-      </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
+      <c r="B24" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
     </row>
     <row r="25" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+    </row>
+    <row r="26" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B26" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+    </row>
+    <row r="27" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B27" s="79" t="s">
         <v>246</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-    </row>
-    <row r="26" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B26" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="C26" s="83" t="s">
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+    </row>
+    <row r="28" spans="2:6" ht="9" customHeight="1">
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+    </row>
+    <row r="29" spans="2:6" ht="30" customHeight="1">
+      <c r="B29" s="80" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-    </row>
-    <row r="27" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B27" s="85" t="s">
-        <v>248</v>
-      </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-    </row>
-    <row r="28" spans="2:6" ht="9" customHeight="1">
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-    </row>
-    <row r="29" spans="2:6" ht="30" customHeight="1">
-      <c r="B29" s="78" t="s">
-        <v>249</v>
-      </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
     </row>
     <row r="30" spans="2:6" ht="27.75" customHeight="1">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F30" s="12" t="str">
         <f>D4</f>
@@ -12495,7 +12698,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F31" s="12">
         <f>D7</f>
@@ -12511,12 +12714,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -12529,72 +12731,121 @@
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="C21:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:8">
       <c r="B2">
         <v>1000</v>
       </c>
       <c r="C2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="32" t="s">
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="34">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="34">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="95">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="34">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5" s="34">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="95">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="C4" s="35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" s="35">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>3000</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
+      <c r="E6" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" s="34">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="95">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="1" t="e">
         <f>B4+B5+B6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <f>C4+C5+C6</f>
+        <v>6000</v>
+      </c>
+      <c r="E7" s="1" t="e">
+        <f>E4+E5+E6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" s="33">
+        <f>F4+F5+F6</f>
+        <v>6000</v>
+      </c>
+      <c r="H7" s="95">
+        <f>H4+H5+H6</f>
         <v>6000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12602,7 +12853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -12614,83 +12867,83 @@
   <sheetData>
     <row r="2" spans="2:5" ht="26.25" customHeight="1">
       <c r="B2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1">
       <c r="B3" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>498</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="21.75" customHeight="1">
-      <c r="B4" s="53" t="s">
-        <v>415</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>414</v>
+      <c r="B4" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="21.75" customHeight="1">
+      <c r="B5" s="81" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>497</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="21.75" customHeight="1">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E6" s="91"/>
+    </row>
+    <row r="7" spans="2:5" ht="21.75" customHeight="1">
+      <c r="B7" s="81" t="s">
+        <v>607</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>500</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E7" s="90" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="21.75" customHeight="1">
-      <c r="B5" s="79" t="s">
-        <v>416</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>499</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="21.75" customHeight="1">
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="E6" s="88"/>
-    </row>
-    <row r="7" spans="2:5" ht="21.75" customHeight="1">
-      <c r="B7" s="79" t="s">
-        <v>609</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>502</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>613</v>
-      </c>
-    </row>
     <row r="8" spans="2:5" ht="21.75" customHeight="1">
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="E8" s="88"/>
+        <v>605</v>
+      </c>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" spans="2:5" ht="11.25" customHeight="1">
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="56"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="11" spans="2:5" ht="28.5" customHeight="1"/>
     <row r="12" spans="2:5" ht="28.5" customHeight="1"/>
@@ -12716,7 +12969,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12727,168 +12980,168 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="35" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="36" t="s">
+      <c r="C4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="E4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="C3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D3" t="s">
-        <v>441</v>
-      </c>
-      <c r="E3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="36" t="s">
+      <c r="C7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="C4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>441</v>
-      </c>
-      <c r="E4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="C6" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="C7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="36" t="s">
-        <v>422</v>
-      </c>
       <c r="C8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="33">
       <c r="B12" t="s">
-        <v>426</v>
-      </c>
-      <c r="D12" s="38" t="s">
         <v>424</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>427</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="33">
       <c r="B14" t="s">
-        <v>446</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>445</v>
+        <v>444</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="28.5" customHeight="1">
       <c r="B16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="28.5" customHeight="1">
+      <c r="B17" s="92" t="s">
+        <v>445</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="28.5" customHeight="1">
-      <c r="B17" s="89" t="s">
-        <v>447</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="D17" s="33">
+      <c r="D17" s="32">
         <v>90</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <v>70</v>
       </c>
-      <c r="F17" s="41" t="str">
+      <c r="F17" s="40" t="str">
         <f>SUM(D17:E17)&amp;CHAR(10)&amp;"("&amp;AVERAGE(D17:E17)&amp;")"</f>
         <v>160
 (80)</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="28.5" customHeight="1">
-      <c r="B18" s="89"/>
-      <c r="C18" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="D18" s="33">
+      <c r="B18" s="92"/>
+      <c r="C18" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="D18" s="32">
         <v>80</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <v>100</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="2:6" ht="28.5" customHeight="1">
-      <c r="C19" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="D19" s="33">
+      <c r="C19" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="D19" s="32">
         <v>100</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="32">
         <v>100</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ExcelBasic/필요한것만 골라보기_01~10.xlsx
+++ b/ExcelBasic/필요한것만 골라보기_01~10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10980" tabRatio="712" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10980" tabRatio="712" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="2.Ctrl키와 Shift키" sheetId="16" r:id="rId1"/>
@@ -22,11 +22,11 @@
     <sheet name="6.중요한 보기방식" sheetId="13" r:id="rId8"/>
     <sheet name="7.기본입력방법" sheetId="14" r:id="rId9"/>
     <sheet name="8.테두리" sheetId="15" r:id="rId10"/>
-    <sheet name="10.저장" sheetId="23" r:id="rId11"/>
-    <sheet name="9.시트" sheetId="17" r:id="rId12"/>
+    <sheet name="9.시트" sheetId="17" r:id="rId11"/>
+    <sheet name="10.저장" sheetId="23" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">사원명부2!$A$1:$P$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">사원명부2!$A$1:$K$80</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="609">
   <si>
     <t>동명왕</t>
   </si>
@@ -725,10 +725,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1. 양 당사자</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>주민등록번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1511,14 +1507,6 @@
   </si>
   <si>
     <t>가나다라마바사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가나다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가나다라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1739,10 +1727,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 그냥 저장이 이전 저장된 내용을 덮어 써 버리기 때문에 원본회손을 막기 위해 사용된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 파일 포맷형식을 변경하기 위해 사용된다. (요즘은 PDF문서로 보관하기 위해 많이 사용된다. )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2163,6 +2147,10 @@
   </si>
   <si>
     <t>사원명부2시트 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 그냥 저장이 이전 저장된 내용을 덮어 써 버리기 때문에 원본훼손을 막기 위해 사용된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2343,7 +2331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2570,6 +2558,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2582,7 +2760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2706,9 +2884,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2719,12 +2894,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -2805,6 +2974,18 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2814,13 +2995,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2838,16 +3022,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2862,13 +3043,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5046,7 +5302,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5061,95 +5317,95 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B2" s="94" t="s">
-        <v>472</v>
-      </c>
-      <c r="C2" s="94" t="s">
-        <v>471</v>
-      </c>
-      <c r="D2" s="94" t="s">
-        <v>470</v>
-      </c>
-      <c r="E2" s="94" t="s">
+      <c r="B2" s="73" t="s">
         <v>469</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="C2" s="73" t="s">
         <v>468</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="D2" s="73" t="s">
         <v>467</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="73" t="s">
         <v>466</v>
       </c>
+      <c r="F2" s="73" t="s">
+        <v>465</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>464</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="3" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B3" s="67" t="s">
-        <v>465</v>
+      <c r="B3" s="64" t="s">
+        <v>462</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>178</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G3" s="7">
         <v>35997</v>
       </c>
       <c r="I3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="27.75" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G4" s="7">
         <v>35622</v>
       </c>
       <c r="I4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="64" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>111</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G5" s="7">
         <v>35786</v>
       </c>
       <c r="I5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="27.75" customHeight="1">
@@ -5166,24 +5422,24 @@
         <v>112</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G6" s="7">
         <v>35235</v>
       </c>
-      <c r="I6" s="53" t="s">
-        <v>455</v>
+      <c r="I6" s="50" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B7" s="93" t="s">
-        <v>454</v>
+      <c r="B7" s="72" t="s">
+        <v>451</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>113</v>
@@ -5203,13 +5459,13 @@
         <v>88</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>114</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G8" s="7">
         <v>35270</v>
@@ -5220,16 +5476,16 @@
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>115</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G9" s="7">
         <v>35083</v>
@@ -5285,134 +5541,164 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M17"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="99"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="102"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" t="s">
-        <v>447</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="J8" s="104"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="106"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="108"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="118"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="108"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="108"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="108"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="118"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="110"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="116"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="118"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5423,55 +5709,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="2" spans="2:3" s="50" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B2" s="50" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" s="50" customFormat="1" ht="27.75" customHeight="1">
-      <c r="C3" s="51" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" s="50" customFormat="1" ht="27.75" customHeight="1">
-      <c r="C4" s="51" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" s="50" customFormat="1" ht="27.75" customHeight="1"/>
-    <row r="6" spans="2:3" s="50" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B6" s="50" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" s="50" customFormat="1" ht="27.75" customHeight="1">
-      <c r="C7" s="51" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" s="50" customFormat="1" ht="27.75" customHeight="1">
-      <c r="C8" s="51" t="s">
-        <v>487</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -5480,53 +5722,101 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="39" customHeight="1">
       <c r="B3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="39" customHeight="1">
       <c r="B4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="39" customHeight="1">
       <c r="B5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="39" customHeight="1">
       <c r="B6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="39" customHeight="1">
       <c r="B7" s="35" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="35.25" customHeight="1">
       <c r="B8" s="35" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="28.5" customHeight="1">
       <c r="B9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="28.5" customHeight="1">
       <c r="B10" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:3" s="47" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B2" s="47" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" s="47" customFormat="1" ht="27.75" customHeight="1">
+      <c r="C3" s="48" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" s="47" customFormat="1" ht="27.75" customHeight="1">
+      <c r="C4" s="48" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" s="47" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="6" spans="2:3" s="47" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B6" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" s="47" customFormat="1" ht="27.75" customHeight="1">
+      <c r="C7" s="48" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" s="47" customFormat="1" ht="27.75" customHeight="1">
+      <c r="C8" s="48" t="s">
+        <v>483</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5535,7 +5825,7 @@
   <dimension ref="B2:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5871,7 +6161,7 @@
   <dimension ref="B2:K80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5887,7 +6177,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="26.25">
       <c r="B2" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -5920,10 +6210,10 @@
         <v>85</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -5946,7 +6236,7 @@
         <v>35997</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J5" s="1">
         <v>100</v>
@@ -5975,7 +6265,7 @@
         <v>35622</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J6" s="1">
         <v>300</v>
@@ -6002,7 +6292,7 @@
         <v>35786</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
@@ -6029,7 +6319,7 @@
         <v>35235</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J8" s="1">
         <v>500</v>
@@ -6056,7 +6346,7 @@
         <v>36419</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -6081,7 +6371,7 @@
         <v>35270</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1">
@@ -6108,7 +6398,7 @@
         <v>35083</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J11" s="1">
         <v>7100</v>
@@ -6137,7 +6427,7 @@
         <v>36441</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -6162,7 +6452,7 @@
         <v>35908</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J13" s="1">
         <v>900</v>
@@ -6189,7 +6479,7 @@
         <v>35257</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -6212,7 +6502,7 @@
         <v>35727</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -6235,7 +6525,7 @@
         <v>35613</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -6258,7 +6548,7 @@
         <v>36255</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -6281,7 +6571,7 @@
         <v>36993</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -6304,7 +6594,7 @@
         <v>37152</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -6327,7 +6617,7 @@
         <v>37049</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -6350,7 +6640,7 @@
         <v>36313</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -6373,7 +6663,7 @@
         <v>37421</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -6396,7 +6686,7 @@
         <v>36843</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -6419,7 +6709,7 @@
         <v>36171</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -6442,7 +6732,7 @@
         <v>37523</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -6465,7 +6755,7 @@
         <v>38980</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -6488,7 +6778,7 @@
         <v>38660</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -6511,7 +6801,7 @@
         <v>38987</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -6534,7 +6824,7 @@
         <v>37237</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -6557,7 +6847,7 @@
         <v>38828</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="2:8">
@@ -6580,7 +6870,7 @@
         <v>38758</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -6603,7 +6893,7 @@
         <v>37285</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="2:8">
@@ -6626,7 +6916,7 @@
         <v>37418</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="2:8">
@@ -6649,7 +6939,7 @@
         <v>38810</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -6672,7 +6962,7 @@
         <v>37421</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="2:8">
@@ -6695,7 +6985,7 @@
         <v>37335</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="2:8">
@@ -6718,7 +7008,7 @@
         <v>38847</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -6741,7 +7031,7 @@
         <v>38672</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="2:8">
@@ -6764,7 +7054,7 @@
         <v>40788</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="2:8">
@@ -6787,7 +7077,7 @@
         <v>39157</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="2:8">
@@ -6810,7 +7100,7 @@
         <v>38889</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="2:8">
@@ -6833,7 +7123,7 @@
         <v>38912</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="2:8">
@@ -6856,7 +7146,7 @@
         <v>40765</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -6879,7 +7169,7 @@
         <v>40080</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="2:8">
@@ -6902,7 +7192,7 @@
         <v>40240</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -6925,7 +7215,7 @@
         <v>39605</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -6948,7 +7238,7 @@
         <v>40826</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -6971,7 +7261,7 @@
         <v>39708</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="2:8">
@@ -6994,7 +7284,7 @@
         <v>40102</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="2:8">
@@ -7017,7 +7307,7 @@
         <v>39542</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="2:8">
@@ -7040,7 +7330,7 @@
         <v>41030</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="2:8">
@@ -7063,7 +7353,7 @@
         <v>40200</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="2:8">
@@ -7086,7 +7376,7 @@
         <v>39779</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="2:8">
@@ -7109,7 +7399,7 @@
         <v>38891</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="2:8">
@@ -7132,7 +7422,7 @@
         <v>39168</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="2:8">
@@ -7155,7 +7445,7 @@
         <v>40816</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="2:8">
@@ -7178,7 +7468,7 @@
         <v>41278</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="2:8">
@@ -7201,7 +7491,7 @@
         <v>40563</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="2:8">
@@ -7224,7 +7514,7 @@
         <v>42269</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="2:8">
@@ -7247,7 +7537,7 @@
         <v>40869</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="2:8">
@@ -7270,7 +7560,7 @@
         <v>42830</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="2:8">
@@ -7293,7 +7583,7 @@
         <v>40710</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="2:8">
@@ -7316,7 +7606,7 @@
         <v>42699</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="2:8">
@@ -7339,7 +7629,7 @@
         <v>41765</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="2:8">
@@ -7362,7 +7652,7 @@
         <v>41157</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="2:8">
@@ -7385,7 +7675,7 @@
         <v>42352</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="2:8">
@@ -7408,7 +7698,7 @@
         <v>40809</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="2:8">
@@ -7431,7 +7721,7 @@
         <v>40683</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="2:8">
@@ -7454,7 +7744,7 @@
         <v>41568</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="2:8">
@@ -7477,7 +7767,7 @@
         <v>41914</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="2:8">
@@ -7500,7 +7790,7 @@
         <v>41312</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="2:8">
@@ -7523,7 +7813,7 @@
         <v>42332</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="2:8">
@@ -7546,7 +7836,7 @@
         <v>42951</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="2:8">
@@ -7569,7 +7859,7 @@
         <v>41873</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" spans="2:8">
@@ -7592,7 +7882,7 @@
         <v>40703</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="2:8">
@@ -7615,7 +7905,7 @@
         <v>41337</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="2:8">
@@ -7638,7 +7928,7 @@
         <v>42009</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="2:8">
@@ -7661,7 +7951,7 @@
         <v>40883</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="2:8">
@@ -7684,7 +7974,7 @@
         <v>42667</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="2:8">
@@ -7707,7 +7997,7 @@
         <v>41589</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -7722,7 +8012,7 @@
   <dimension ref="B2:K80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7739,7 +8029,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="26.25">
       <c r="B2" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -7807,7 +8097,7 @@
         <v>35997</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -7833,7 +8123,7 @@
         <v>35622</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -7859,7 +8149,7 @@
         <v>35786</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -7885,7 +8175,7 @@
         <v>35235</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -7911,7 +8201,7 @@
         <v>36419</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -7937,7 +8227,7 @@
         <v>35270</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -7963,7 +8253,7 @@
         <v>35083</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -7989,7 +8279,7 @@
         <v>36441</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -8015,7 +8305,7 @@
         <v>35908</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -8041,7 +8331,7 @@
         <v>35257</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -8067,7 +8357,7 @@
         <v>35727</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -8093,7 +8383,7 @@
         <v>35613</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -8119,7 +8409,7 @@
         <v>36255</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -8145,7 +8435,7 @@
         <v>36993</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -8171,7 +8461,7 @@
         <v>37152</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -8197,7 +8487,7 @@
         <v>37049</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -8223,7 +8513,7 @@
         <v>36313</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -8249,7 +8539,7 @@
         <v>37421</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -8275,7 +8565,7 @@
         <v>36843</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="2:11">
@@ -8301,7 +8591,7 @@
         <v>36171</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="2:11">
@@ -8327,7 +8617,7 @@
         <v>37523</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -8353,7 +8643,7 @@
         <v>38980</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -8379,7 +8669,7 @@
         <v>38660</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -8405,7 +8695,7 @@
         <v>38987</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -8431,7 +8721,7 @@
         <v>37237</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -8457,7 +8747,7 @@
         <v>38828</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -8483,7 +8773,7 @@
         <v>38758</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -8509,7 +8799,7 @@
         <v>37285</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -8535,7 +8825,7 @@
         <v>37418</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -8561,7 +8851,7 @@
         <v>38810</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="2:11">
@@ -8587,7 +8877,7 @@
         <v>37421</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="2:11">
@@ -8613,7 +8903,7 @@
         <v>37335</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="2:11">
@@ -8639,7 +8929,7 @@
         <v>38847</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -8665,7 +8955,7 @@
         <v>38672</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -8691,7 +8981,7 @@
         <v>40788</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -8717,7 +9007,7 @@
         <v>39157</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -8743,7 +9033,7 @@
         <v>38889</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -8769,7 +9059,7 @@
         <v>38912</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -8795,7 +9085,7 @@
         <v>40765</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -8821,7 +9111,7 @@
         <v>40080</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -8847,7 +9137,7 @@
         <v>40240</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -8873,7 +9163,7 @@
         <v>39605</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -8899,7 +9189,7 @@
         <v>40826</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="2:11">
@@ -8925,7 +9215,7 @@
         <v>39708</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="2:11">
@@ -8951,7 +9241,7 @@
         <v>40102</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="2:11">
@@ -8977,7 +9267,7 @@
         <v>39542</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="2:11">
@@ -9003,7 +9293,7 @@
         <v>41030</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="2:11">
@@ -9029,7 +9319,7 @@
         <v>40200</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="2:11">
@@ -9055,7 +9345,7 @@
         <v>39779</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -9081,7 +9371,7 @@
         <v>38891</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="2:11">
@@ -9107,7 +9397,7 @@
         <v>39168</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="2:11">
@@ -9133,7 +9423,7 @@
         <v>40816</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="2:11">
@@ -9159,7 +9449,7 @@
         <v>41278</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="2:11">
@@ -9185,7 +9475,7 @@
         <v>40563</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -9211,7 +9501,7 @@
         <v>42269</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="2:11">
@@ -9237,7 +9527,7 @@
         <v>40869</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" spans="2:11">
@@ -9263,7 +9553,7 @@
         <v>42830</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="2:11">
@@ -9289,7 +9579,7 @@
         <v>40710</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="2:11">
@@ -9315,7 +9605,7 @@
         <v>42699</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="2:11">
@@ -9341,7 +9631,7 @@
         <v>41765</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -9367,7 +9657,7 @@
         <v>41157</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="2:11">
@@ -9393,7 +9683,7 @@
         <v>42352</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -9419,7 +9709,7 @@
         <v>40809</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -9445,7 +9735,7 @@
         <v>40683</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -9471,7 +9761,7 @@
         <v>41568</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -9497,7 +9787,7 @@
         <v>41914</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -9523,7 +9813,7 @@
         <v>41312</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72" spans="2:11">
@@ -9549,7 +9839,7 @@
         <v>42332</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -9575,7 +9865,7 @@
         <v>42951</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="74" spans="2:11">
@@ -9601,7 +9891,7 @@
         <v>41873</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="75" spans="2:11">
@@ -9627,7 +9917,7 @@
         <v>40703</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="76" spans="2:11">
@@ -9653,7 +9943,7 @@
         <v>41337</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="77" spans="2:11">
@@ -9679,7 +9969,7 @@
         <v>42009</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="78" spans="2:11">
@@ -9705,7 +9995,7 @@
         <v>40883</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="79" spans="2:11">
@@ -9731,7 +10021,7 @@
         <v>42667</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="80" spans="2:11">
@@ -9757,7 +10047,7 @@
         <v>41589</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -9774,8 +10064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P80"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9796,7 +10086,7 @@
     <row r="1" spans="2:16" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:16" ht="26.25">
       <c r="B2" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -9807,685 +10097,685 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="M2" s="74" t="s">
-        <v>493</v>
-      </c>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
+      <c r="M2" s="75" t="s">
+        <v>489</v>
+      </c>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="2:16" ht="6" customHeight="1">
-      <c r="M3" s="54"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="56"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="66" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>471</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>599</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>600</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="66" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="66" t="s">
-        <v>601</v>
-      </c>
-      <c r="I4" s="66" t="s">
+      <c r="B4" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="63" t="s">
         <v>468</v>
       </c>
-      <c r="J4" s="66" t="s">
-        <v>467</v>
-      </c>
-      <c r="K4" s="66" t="s">
-        <v>501</v>
-      </c>
-      <c r="M4" s="57" t="s">
-        <v>489</v>
+      <c r="D4" s="63" t="s">
+        <v>595</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>596</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>597</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>465</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="K4" s="63" t="s">
+        <v>497</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>485</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>492</v>
+        <v>487</v>
+      </c>
+      <c r="P4" s="55" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="66" t="s">
-        <v>451</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="F5" s="66" t="s">
+      <c r="D5" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="F5" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="65">
         <v>25248</v>
       </c>
-      <c r="H5" s="69">
+      <c r="H5" s="66">
         <v>49</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="65">
         <v>35270</v>
       </c>
-      <c r="K5" s="66" t="s">
-        <v>503</v>
-      </c>
-      <c r="M5" s="59"/>
+      <c r="K5" s="63" t="s">
+        <v>499</v>
+      </c>
+      <c r="M5" s="56"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="60"/>
+      <c r="P5" s="57"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="66" t="s">
-        <v>512</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="F6" s="66" t="s">
+      <c r="D6" s="63" t="s">
+        <v>508</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="F6" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="65">
         <v>27191</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="66">
         <v>44</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="65">
         <v>36993</v>
       </c>
-      <c r="K6" s="66" t="s">
-        <v>504</v>
-      </c>
-      <c r="M6" s="59"/>
+      <c r="K6" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="M6" s="56"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="60"/>
+      <c r="P6" s="57"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="66" t="s">
-        <v>515</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="F7" s="66" t="s">
+      <c r="D7" s="63" t="s">
+        <v>511</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="F7" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="65">
         <v>28944</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="66">
         <v>39</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="J7" s="68">
+      <c r="J7" s="65">
         <v>38828</v>
       </c>
-      <c r="K7" s="66" t="s">
-        <v>505</v>
-      </c>
-      <c r="M7" s="59"/>
+      <c r="K7" s="63" t="s">
+        <v>501</v>
+      </c>
+      <c r="M7" s="56"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="60"/>
+      <c r="P7" s="57"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="66" t="s">
-        <v>537</v>
-      </c>
-      <c r="E8" s="66" t="s">
+      <c r="D8" s="63" t="s">
+        <v>533</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="65">
+        <v>30539</v>
+      </c>
+      <c r="H8" s="66">
+        <v>35</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" s="65">
+        <v>40240</v>
+      </c>
+      <c r="K8" s="63" t="s">
         <v>502</v>
       </c>
-      <c r="F8" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="68">
-        <v>30539</v>
-      </c>
-      <c r="H8" s="69">
-        <v>35</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="J8" s="68">
-        <v>40240</v>
-      </c>
-      <c r="K8" s="66" t="s">
-        <v>506</v>
-      </c>
-      <c r="M8" s="59"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="60"/>
+      <c r="P8" s="57"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="66" t="s">
-        <v>507</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>508</v>
-      </c>
-      <c r="F9" s="66" t="s">
+      <c r="D9" s="63" t="s">
+        <v>503</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="F9" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="65">
         <v>31441</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="66">
         <v>32</v>
       </c>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="65">
         <v>41157</v>
       </c>
-      <c r="K9" s="66" t="s">
-        <v>509</v>
-      </c>
-      <c r="M9" s="59"/>
+      <c r="K9" s="63" t="s">
+        <v>505</v>
+      </c>
+      <c r="M9" s="56"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="60"/>
+      <c r="P9" s="57"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="66" t="s">
-        <v>507</v>
-      </c>
-      <c r="E10" s="66" t="s">
-        <v>508</v>
-      </c>
-      <c r="F10" s="66" t="s">
+      <c r="D10" s="63" t="s">
+        <v>503</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="F10" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="65">
         <v>33067</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="66">
         <v>28</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="65">
         <v>42352</v>
       </c>
-      <c r="K10" s="66" t="s">
-        <v>510</v>
-      </c>
-      <c r="M10" s="59"/>
+      <c r="K10" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="M10" s="56"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="60"/>
+      <c r="P10" s="57"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="66" t="s">
-        <v>451</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>508</v>
-      </c>
-      <c r="F11" s="66" t="s">
+      <c r="D11" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="F11" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="65">
         <v>25980</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="66">
         <v>47</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="65">
         <v>35908</v>
       </c>
-      <c r="K11" s="66" t="s">
-        <v>511</v>
-      </c>
-      <c r="M11" s="59"/>
+      <c r="K11" s="63" t="s">
+        <v>507</v>
+      </c>
+      <c r="M11" s="56"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="60"/>
+      <c r="P11" s="57"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="66" t="s">
-        <v>512</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="F12" s="66" t="s">
+      <c r="D12" s="63" t="s">
+        <v>508</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="F12" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="65">
         <v>27186</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="66">
         <v>44</v>
       </c>
-      <c r="I12" s="66" t="s">
+      <c r="I12" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="65">
         <v>36313</v>
       </c>
-      <c r="K12" s="66" t="s">
-        <v>513</v>
-      </c>
-      <c r="M12" s="59"/>
+      <c r="K12" s="63" t="s">
+        <v>509</v>
+      </c>
+      <c r="M12" s="56"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="60"/>
+      <c r="P12" s="57"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="66" t="s">
-        <v>512</v>
-      </c>
-      <c r="E13" s="66" t="s">
+      <c r="D13" s="63" t="s">
         <v>508</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="E13" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="F13" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="65">
         <v>27389</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="66">
         <v>44</v>
       </c>
-      <c r="I13" s="66" t="s">
+      <c r="I13" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="J13" s="68">
+      <c r="J13" s="65">
         <v>37421</v>
       </c>
-      <c r="K13" s="66" t="s">
-        <v>514</v>
-      </c>
-      <c r="M13" s="59"/>
+      <c r="K13" s="63" t="s">
+        <v>510</v>
+      </c>
+      <c r="M13" s="56"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="60"/>
+      <c r="P13" s="57"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="66" t="s">
-        <v>515</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="F14" s="66" t="s">
+      <c r="D14" s="63" t="s">
+        <v>511</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="F14" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="65">
         <v>27275</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="66">
         <v>44</v>
       </c>
-      <c r="I14" s="66" t="s">
+      <c r="I14" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J14" s="65">
         <v>37421</v>
       </c>
-      <c r="K14" s="66" t="s">
-        <v>516</v>
-      </c>
-      <c r="M14" s="59"/>
+      <c r="K14" s="63" t="s">
+        <v>512</v>
+      </c>
+      <c r="M14" s="56"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="60"/>
+      <c r="P14" s="57"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="C15" s="66" t="s">
+      <c r="B15" s="64" t="s">
+        <v>598</v>
+      </c>
+      <c r="C15" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="66" t="s">
-        <v>515</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="F15" s="66" t="s">
+      <c r="D15" s="63" t="s">
+        <v>511</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="F15" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="65">
         <v>27265</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="66">
         <v>44</v>
       </c>
-      <c r="I15" s="66" t="s">
+      <c r="I15" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="65">
         <v>37335</v>
       </c>
-      <c r="K15" s="66" t="s">
-        <v>517</v>
-      </c>
-      <c r="M15" s="59"/>
+      <c r="K15" s="63" t="s">
+        <v>513</v>
+      </c>
+      <c r="M15" s="56"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="60"/>
+      <c r="P15" s="57"/>
     </row>
     <row r="16" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="66" t="s">
-        <v>537</v>
-      </c>
-      <c r="E16" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="F16" s="66" t="s">
+      <c r="D16" s="63" t="s">
+        <v>533</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="F16" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="65">
         <v>31498</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="66">
         <v>32</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="J16" s="68">
+      <c r="J16" s="65">
         <v>41030</v>
       </c>
-      <c r="K16" s="66" t="s">
+      <c r="K16" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="60"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>599</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="65">
+        <v>30597</v>
+      </c>
+      <c r="H17" s="66">
+        <v>35</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" s="65">
+        <v>40200</v>
+      </c>
+      <c r="K17" s="63" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>533</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="65">
+        <v>30341</v>
+      </c>
+      <c r="H18" s="66">
+        <v>35</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="J18" s="65">
+        <v>39779</v>
+      </c>
+      <c r="K18" s="63" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>503</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="65">
+        <v>32356</v>
+      </c>
+      <c r="H19" s="66">
+        <v>30</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" s="65">
+        <v>42332</v>
+      </c>
+      <c r="K19" s="63" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>503</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="65">
+        <v>32876</v>
+      </c>
+      <c r="H20" s="66">
+        <v>28</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" s="65">
+        <v>42951</v>
+      </c>
+      <c r="K20" s="63" t="s">
         <v>518</v>
       </c>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="63"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="66" t="s">
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="66" t="s">
-        <v>603</v>
-      </c>
-      <c r="E17" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="F17" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="68">
+      <c r="D21" s="63" t="s">
+        <v>503</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="65">
+        <v>32481</v>
+      </c>
+      <c r="H21" s="66">
+        <v>30</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" s="65">
+        <v>41873</v>
+      </c>
+      <c r="K21" s="63" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>503</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="65">
         <v>30597</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H22" s="66">
         <v>35</v>
       </c>
-      <c r="I17" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="J17" s="68">
-        <v>40200</v>
-      </c>
-      <c r="K17" s="66" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>537</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="F18" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="68">
-        <v>30341</v>
-      </c>
-      <c r="H18" s="69">
-        <v>35</v>
-      </c>
-      <c r="I18" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="J18" s="68">
-        <v>39779</v>
-      </c>
-      <c r="K18" s="66" t="s">
+      <c r="I22" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" s="65">
+        <v>40703</v>
+      </c>
+      <c r="K22" s="63" t="s">
         <v>520</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>507</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="F19" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="68">
-        <v>32356</v>
-      </c>
-      <c r="H19" s="69">
-        <v>30</v>
-      </c>
-      <c r="I19" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="J19" s="68">
-        <v>42332</v>
-      </c>
-      <c r="K19" s="66" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>507</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="F20" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20" s="68">
-        <v>32876</v>
-      </c>
-      <c r="H20" s="69">
-        <v>28</v>
-      </c>
-      <c r="I20" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="J20" s="68">
-        <v>42951</v>
-      </c>
-      <c r="K20" s="66" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>507</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="F21" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" s="68">
-        <v>32481</v>
-      </c>
-      <c r="H21" s="69">
-        <v>30</v>
-      </c>
-      <c r="I21" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="J21" s="68">
-        <v>41873</v>
-      </c>
-      <c r="K21" s="66" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="66" t="s">
-        <v>507</v>
-      </c>
-      <c r="E22" s="66" t="s">
-        <v>508</v>
-      </c>
-      <c r="F22" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="68">
-        <v>30597</v>
-      </c>
-      <c r="H22" s="69">
-        <v>35</v>
-      </c>
-      <c r="I22" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="J22" s="68">
-        <v>40703</v>
-      </c>
-      <c r="K22" s="66" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -10493,13 +10783,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>111</v>
@@ -10507,7 +10797,7 @@
       <c r="G23" s="7">
         <v>26558</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="61">
         <v>46</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -10517,7 +10807,7 @@
         <v>35786</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="2:11">
@@ -10525,13 +10815,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>181</v>
@@ -10539,7 +10829,7 @@
       <c r="G24" s="7">
         <v>26499</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="61">
         <v>46</v>
       </c>
       <c r="I24" s="3" t="s">
@@ -10549,21 +10839,21 @@
         <v>35613</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>128</v>
@@ -10571,7 +10861,7 @@
       <c r="G25" s="7">
         <v>29040</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="61">
         <v>39</v>
       </c>
       <c r="I25" s="3" t="s">
@@ -10581,7 +10871,7 @@
         <v>38660</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -10589,13 +10879,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>185</v>
@@ -10603,7 +10893,7 @@
       <c r="G26" s="7">
         <v>29408</v>
       </c>
-      <c r="H26" s="64">
+      <c r="H26" s="61">
         <v>38</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -10613,7 +10903,7 @@
         <v>38889</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -10621,13 +10911,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>184</v>
@@ -10635,7 +10925,7 @@
       <c r="G27" s="7">
         <v>28611</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="61">
         <v>40</v>
       </c>
       <c r="I27" s="3" t="s">
@@ -10645,7 +10935,7 @@
         <v>38912</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -10653,13 +10943,13 @@
         <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>157</v>
@@ -10667,7 +10957,7 @@
       <c r="G28" s="7">
         <v>30818</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="61">
         <v>34</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -10677,7 +10967,7 @@
         <v>40869</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -10685,13 +10975,13 @@
         <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>158</v>
@@ -10699,7 +10989,7 @@
       <c r="G29" s="7">
         <v>33096</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="61">
         <v>28</v>
       </c>
       <c r="I29" s="3" t="s">
@@ -10709,21 +10999,21 @@
         <v>42830</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>110</v>
@@ -10731,7 +11021,7 @@
       <c r="G30" s="7">
         <v>26056</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="61">
         <v>47</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -10741,7 +11031,7 @@
         <v>35622</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -10749,13 +11039,13 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>119</v>
@@ -10763,7 +11053,7 @@
       <c r="G31" s="7">
         <v>26055</v>
       </c>
-      <c r="H31" s="64">
+      <c r="H31" s="61">
         <v>47</v>
       </c>
       <c r="I31" s="3" t="s">
@@ -10773,21 +11063,21 @@
         <v>35727</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>127</v>
@@ -10795,7 +11085,7 @@
       <c r="G32" s="7">
         <v>28595</v>
       </c>
-      <c r="H32" s="64">
+      <c r="H32" s="61">
         <v>40</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -10805,7 +11095,7 @@
         <v>38980</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -10813,13 +11103,13 @@
         <v>3</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>139</v>
@@ -10827,7 +11117,7 @@
       <c r="G33" s="7">
         <v>29095</v>
       </c>
-      <c r="H33" s="64">
+      <c r="H33" s="61">
         <v>39</v>
       </c>
       <c r="I33" s="3" t="s">
@@ -10837,7 +11127,7 @@
         <v>39157</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -10845,13 +11135,13 @@
         <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>155</v>
@@ -10859,7 +11149,7 @@
       <c r="G34" s="7">
         <v>30608</v>
       </c>
-      <c r="H34" s="64">
+      <c r="H34" s="61">
         <v>35</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -10869,7 +11159,7 @@
         <v>40563</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="2:11">
@@ -10877,13 +11167,13 @@
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>156</v>
@@ -10891,7 +11181,7 @@
       <c r="G35" s="7">
         <v>31927</v>
       </c>
-      <c r="H35" s="64">
+      <c r="H35" s="61">
         <v>31</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -10901,7 +11191,7 @@
         <v>42269</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="2:11">
@@ -10909,13 +11199,13 @@
         <v>21</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>115</v>
@@ -10923,7 +11213,7 @@
       <c r="G36" s="7">
         <v>25680</v>
       </c>
-      <c r="H36" s="64">
+      <c r="H36" s="61">
         <v>48</v>
       </c>
       <c r="I36" s="3" t="s">
@@ -10933,7 +11223,7 @@
         <v>35083</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="37" spans="2:11">
@@ -10941,13 +11231,13 @@
         <v>22</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>122</v>
@@ -10955,7 +11245,7 @@
       <c r="G37" s="7">
         <v>26709</v>
       </c>
-      <c r="H37" s="64">
+      <c r="H37" s="61">
         <v>45</v>
       </c>
       <c r="I37" s="3" t="s">
@@ -10965,21 +11255,21 @@
         <v>37152</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="6" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>130</v>
@@ -10987,7 +11277,7 @@
       <c r="G38" s="7">
         <v>29529</v>
       </c>
-      <c r="H38" s="64">
+      <c r="H38" s="61">
         <v>38</v>
       </c>
       <c r="I38" s="3" t="s">
@@ -10997,7 +11287,7 @@
         <v>38758</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -11005,13 +11295,13 @@
         <v>23</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>131</v>
@@ -11019,7 +11309,7 @@
       <c r="G39" s="7">
         <v>28114</v>
       </c>
-      <c r="H39" s="64">
+      <c r="H39" s="61">
         <v>42</v>
       </c>
       <c r="I39" s="3" t="s">
@@ -11029,7 +11319,7 @@
         <v>37285</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -11037,13 +11327,13 @@
         <v>24</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>143</v>
@@ -11051,7 +11341,7 @@
       <c r="G40" s="7">
         <v>29749</v>
       </c>
-      <c r="H40" s="64">
+      <c r="H40" s="61">
         <v>37</v>
       </c>
       <c r="I40" s="3" t="s">
@@ -11061,7 +11351,7 @@
         <v>39605</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -11069,13 +11359,13 @@
         <v>25</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>144</v>
@@ -11083,7 +11373,7 @@
       <c r="G41" s="7">
         <v>30789</v>
       </c>
-      <c r="H41" s="64">
+      <c r="H41" s="61">
         <v>34</v>
       </c>
       <c r="I41" s="3" t="s">
@@ -11093,7 +11383,7 @@
         <v>40826</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -11101,13 +11391,13 @@
         <v>70</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>164</v>
@@ -11115,7 +11405,7 @@
       <c r="G42" s="7">
         <v>31201</v>
       </c>
-      <c r="H42" s="64">
+      <c r="H42" s="61">
         <v>33</v>
       </c>
       <c r="I42" s="3" t="s">
@@ -11125,7 +11415,7 @@
         <v>40809</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -11133,13 +11423,13 @@
         <v>26</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>165</v>
@@ -11147,7 +11437,7 @@
       <c r="G43" s="7">
         <v>30805</v>
       </c>
-      <c r="H43" s="64">
+      <c r="H43" s="61">
         <v>34</v>
       </c>
       <c r="I43" s="3" t="s">
@@ -11157,7 +11447,7 @@
         <v>40683</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -11168,10 +11458,10 @@
         <v>89</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>116</v>
@@ -11179,7 +11469,7 @@
       <c r="G44" s="7">
         <v>26188</v>
       </c>
-      <c r="H44" s="64">
+      <c r="H44" s="61">
         <v>47</v>
       </c>
       <c r="I44" s="3" t="s">
@@ -11189,7 +11479,7 @@
         <v>36441</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -11200,10 +11490,10 @@
         <v>89</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>123</v>
@@ -11211,7 +11501,7 @@
       <c r="G45" s="7">
         <v>27185</v>
       </c>
-      <c r="H45" s="64">
+      <c r="H45" s="61">
         <v>44</v>
       </c>
       <c r="I45" s="3" t="s">
@@ -11221,7 +11511,7 @@
         <v>37049</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -11232,10 +11522,10 @@
         <v>89</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>132</v>
@@ -11243,7 +11533,7 @@
       <c r="G46" s="7">
         <v>28146</v>
       </c>
-      <c r="H46" s="64">
+      <c r="H46" s="61">
         <v>41</v>
       </c>
       <c r="I46" s="3" t="s">
@@ -11253,7 +11543,7 @@
         <v>37418</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -11264,10 +11554,10 @@
         <v>89</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>133</v>
@@ -11275,7 +11565,7 @@
       <c r="G47" s="7">
         <v>29424</v>
       </c>
-      <c r="H47" s="64">
+      <c r="H47" s="61">
         <v>38</v>
       </c>
       <c r="I47" s="3" t="s">
@@ -11285,7 +11575,7 @@
         <v>38810</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" spans="2:11">
@@ -11296,10 +11586,10 @@
         <v>89</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>145</v>
@@ -11307,7 +11597,7 @@
       <c r="G48" s="7">
         <v>29790</v>
       </c>
-      <c r="H48" s="64">
+      <c r="H48" s="61">
         <v>37</v>
       </c>
       <c r="I48" s="3" t="s">
@@ -11317,7 +11607,7 @@
         <v>39708</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" spans="2:11">
@@ -11328,10 +11618,10 @@
         <v>89</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>146</v>
@@ -11339,7 +11629,7 @@
       <c r="G49" s="7">
         <v>29905</v>
       </c>
-      <c r="H49" s="64">
+      <c r="H49" s="61">
         <v>37</v>
       </c>
       <c r="I49" s="3" t="s">
@@ -11349,7 +11639,7 @@
         <v>40102</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="2:11">
@@ -11360,10 +11650,10 @@
         <v>89</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>147</v>
@@ -11371,7 +11661,7 @@
       <c r="G50" s="7">
         <v>30334</v>
       </c>
-      <c r="H50" s="64">
+      <c r="H50" s="61">
         <v>35</v>
       </c>
       <c r="I50" s="3" t="s">
@@ -11381,7 +11671,7 @@
         <v>39542</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="2:11">
@@ -11392,10 +11682,10 @@
         <v>89</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>166</v>
@@ -11403,7 +11693,7 @@
       <c r="G51" s="7">
         <v>31941</v>
       </c>
-      <c r="H51" s="64">
+      <c r="H51" s="61">
         <v>31</v>
       </c>
       <c r="I51" s="3" t="s">
@@ -11413,21 +11703,21 @@
         <v>41568</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="6" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>167</v>
@@ -11435,7 +11725,7 @@
       <c r="G52" s="7">
         <v>31600</v>
       </c>
-      <c r="H52" s="64">
+      <c r="H52" s="61">
         <v>32</v>
       </c>
       <c r="I52" s="3" t="s">
@@ -11445,7 +11735,7 @@
         <v>41914</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="53" spans="2:11">
@@ -11456,10 +11746,10 @@
         <v>89</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>168</v>
@@ -11467,7 +11757,7 @@
       <c r="G53" s="7">
         <v>31404</v>
       </c>
-      <c r="H53" s="64">
+      <c r="H53" s="61">
         <v>33</v>
       </c>
       <c r="I53" s="3" t="s">
@@ -11477,7 +11767,7 @@
         <v>41312</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -11485,13 +11775,13 @@
         <v>46</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>118</v>
@@ -11499,7 +11789,7 @@
       <c r="G54" s="7">
         <v>25239</v>
       </c>
-      <c r="H54" s="64">
+      <c r="H54" s="61">
         <v>49</v>
       </c>
       <c r="I54" s="3" t="s">
@@ -11509,7 +11799,7 @@
         <v>35257</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="55" spans="2:11">
@@ -11517,13 +11807,13 @@
         <v>47</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>179</v>
@@ -11531,7 +11821,7 @@
       <c r="G55" s="7">
         <v>27422</v>
       </c>
-      <c r="H55" s="64">
+      <c r="H55" s="61">
         <v>43</v>
       </c>
       <c r="I55" s="3" t="s">
@@ -11541,7 +11831,7 @@
         <v>36843</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="56" spans="2:11">
@@ -11549,13 +11839,13 @@
         <v>48</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>180</v>
@@ -11563,7 +11853,7 @@
       <c r="G56" s="7">
         <v>26635</v>
       </c>
-      <c r="H56" s="64">
+      <c r="H56" s="61">
         <v>46</v>
       </c>
       <c r="I56" s="3" t="s">
@@ -11573,7 +11863,7 @@
         <v>36171</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="57" spans="2:11">
@@ -11581,13 +11871,13 @@
         <v>49</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>136</v>
@@ -11595,7 +11885,7 @@
       <c r="G57" s="7">
         <v>29875</v>
       </c>
-      <c r="H57" s="64">
+      <c r="H57" s="61">
         <v>37</v>
       </c>
       <c r="I57" s="3" t="s">
@@ -11605,7 +11895,7 @@
         <v>38847</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58" spans="2:11">
@@ -11613,13 +11903,13 @@
         <v>50</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>137</v>
@@ -11627,7 +11917,7 @@
       <c r="G58" s="7">
         <v>29194</v>
       </c>
-      <c r="H58" s="64">
+      <c r="H58" s="61">
         <v>39</v>
       </c>
       <c r="I58" s="3" t="s">
@@ -11637,7 +11927,7 @@
         <v>38672</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -11645,13 +11935,13 @@
         <v>51</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>151</v>
@@ -11659,7 +11949,7 @@
       <c r="G59" s="7">
         <v>29681</v>
       </c>
-      <c r="H59" s="64">
+      <c r="H59" s="61">
         <v>37</v>
       </c>
       <c r="I59" s="3" t="s">
@@ -11669,7 +11959,7 @@
         <v>38891</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="60" spans="2:11">
@@ -11677,13 +11967,13 @@
         <v>52</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>152</v>
@@ -11691,7 +11981,7 @@
       <c r="G60" s="7">
         <v>29729</v>
       </c>
-      <c r="H60" s="64">
+      <c r="H60" s="61">
         <v>37</v>
       </c>
       <c r="I60" s="3" t="s">
@@ -11701,7 +11991,7 @@
         <v>39168</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61" spans="2:11">
@@ -11709,13 +11999,13 @@
         <v>53</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>153</v>
@@ -11723,7 +12013,7 @@
       <c r="G61" s="7">
         <v>30815</v>
       </c>
-      <c r="H61" s="64">
+      <c r="H61" s="61">
         <v>34</v>
       </c>
       <c r="I61" s="3" t="s">
@@ -11733,21 +12023,21 @@
         <v>40816</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="6" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>173</v>
@@ -11755,7 +12045,7 @@
       <c r="G62" s="7">
         <v>32313</v>
       </c>
-      <c r="H62" s="64">
+      <c r="H62" s="61">
         <v>30</v>
       </c>
       <c r="I62" s="3" t="s">
@@ -11765,7 +12055,7 @@
         <v>41337</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63" spans="2:11">
@@ -11773,13 +12063,13 @@
         <v>54</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>174</v>
@@ -11787,7 +12077,7 @@
       <c r="G63" s="7">
         <v>33237</v>
       </c>
-      <c r="H63" s="64">
+      <c r="H63" s="61">
         <v>28</v>
       </c>
       <c r="I63" s="3" t="s">
@@ -11797,7 +12087,7 @@
         <v>42009</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="64" spans="2:11">
@@ -11805,13 +12095,13 @@
         <v>55</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>175</v>
@@ -11819,7 +12109,7 @@
       <c r="G64" s="7">
         <v>30602</v>
       </c>
-      <c r="H64" s="64">
+      <c r="H64" s="61">
         <v>35</v>
       </c>
       <c r="I64" s="3" t="s">
@@ -11829,7 +12119,7 @@
         <v>40883</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -11837,13 +12127,13 @@
         <v>56</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>176</v>
@@ -11851,7 +12141,7 @@
       <c r="G65" s="7">
         <v>32985</v>
       </c>
-      <c r="H65" s="64">
+      <c r="H65" s="61">
         <v>28</v>
       </c>
       <c r="I65" s="3" t="s">
@@ -11861,21 +12151,21 @@
         <v>42667</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>177</v>
@@ -11883,7 +12173,7 @@
       <c r="G66" s="7">
         <v>31247</v>
       </c>
-      <c r="H66" s="64">
+      <c r="H66" s="61">
         <v>33</v>
       </c>
       <c r="I66" s="3" t="s">
@@ -11893,7 +12183,7 @@
         <v>41589</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -11901,13 +12191,13 @@
         <v>12</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>112</v>
@@ -11915,7 +12205,7 @@
       <c r="G67" s="7">
         <v>26219</v>
       </c>
-      <c r="H67" s="64">
+      <c r="H67" s="61">
         <v>47</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -11925,7 +12215,7 @@
         <v>35235</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -11933,13 +12223,13 @@
         <v>13</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>120</v>
@@ -11947,7 +12237,7 @@
       <c r="G68" s="7">
         <v>26589</v>
       </c>
-      <c r="H68" s="64">
+      <c r="H68" s="61">
         <v>46</v>
       </c>
       <c r="I68" s="3" t="s">
@@ -11957,7 +12247,7 @@
         <v>36255</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -11965,13 +12255,13 @@
         <v>14</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>129</v>
@@ -11979,7 +12269,7 @@
       <c r="G69" s="7">
         <v>29135</v>
       </c>
-      <c r="H69" s="64">
+      <c r="H69" s="61">
         <v>39</v>
       </c>
       <c r="I69" s="3" t="s">
@@ -11989,21 +12279,21 @@
         <v>38987</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>140</v>
@@ -12011,7 +12301,7 @@
       <c r="G70" s="7">
         <v>30653</v>
       </c>
-      <c r="H70" s="64">
+      <c r="H70" s="61">
         <v>35</v>
       </c>
       <c r="I70" s="3" t="s">
@@ -12021,21 +12311,21 @@
         <v>40765</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="5" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>159</v>
@@ -12043,7 +12333,7 @@
       <c r="G71" s="7">
         <v>31492</v>
       </c>
-      <c r="H71" s="64">
+      <c r="H71" s="61">
         <v>32</v>
       </c>
       <c r="I71" s="3" t="s">
@@ -12053,21 +12343,21 @@
         <v>40710</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>160</v>
@@ -12075,7 +12365,7 @@
       <c r="G72" s="7">
         <v>33386</v>
       </c>
-      <c r="H72" s="64">
+      <c r="H72" s="61">
         <v>27</v>
       </c>
       <c r="I72" s="3" t="s">
@@ -12085,21 +12375,21 @@
         <v>42699</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>178</v>
@@ -12107,7 +12397,7 @@
       <c r="G73" s="7">
         <v>26651</v>
       </c>
-      <c r="H73" s="64">
+      <c r="H73" s="61">
         <v>46</v>
       </c>
       <c r="I73" s="3" t="s">
@@ -12117,7 +12407,7 @@
         <v>35997</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="74" spans="2:11">
@@ -12128,10 +12418,10 @@
         <v>86</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>126</v>
@@ -12139,7 +12429,7 @@
       <c r="G74" s="7">
         <v>28274</v>
       </c>
-      <c r="H74" s="64">
+      <c r="H74" s="61">
         <v>41</v>
       </c>
       <c r="I74" s="3" t="s">
@@ -12149,7 +12439,7 @@
         <v>37523</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="75" spans="2:11">
@@ -12160,10 +12450,10 @@
         <v>86</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>138</v>
@@ -12171,7 +12461,7 @@
       <c r="G75" s="7">
         <v>30781</v>
       </c>
-      <c r="H75" s="64">
+      <c r="H75" s="61">
         <v>34</v>
       </c>
       <c r="I75" s="3" t="s">
@@ -12181,21 +12471,21 @@
         <v>40788</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="6" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>154</v>
@@ -12203,7 +12493,7 @@
       <c r="G76" s="7">
         <v>31565</v>
       </c>
-      <c r="H76" s="64">
+      <c r="H76" s="61">
         <v>32</v>
       </c>
       <c r="I76" s="3" t="s">
@@ -12213,21 +12503,21 @@
         <v>41278</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>113</v>
@@ -12235,7 +12525,7 @@
       <c r="G77" s="7">
         <v>26335</v>
       </c>
-      <c r="H77" s="64">
+      <c r="H77" s="61">
         <v>46</v>
       </c>
       <c r="I77" s="3" t="s">
@@ -12245,21 +12535,21 @@
         <v>36419</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>182</v>
@@ -12267,7 +12557,7 @@
       <c r="G78" s="7">
         <v>28121</v>
       </c>
-      <c r="H78" s="64">
+      <c r="H78" s="61">
         <v>42</v>
       </c>
       <c r="I78" s="3" t="s">
@@ -12277,21 +12567,21 @@
         <v>37237</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>141</v>
@@ -12299,7 +12589,7 @@
       <c r="G79" s="7">
         <v>30285</v>
       </c>
-      <c r="H79" s="64">
+      <c r="H79" s="61">
         <v>36</v>
       </c>
       <c r="I79" s="3" t="s">
@@ -12309,21 +12599,21 @@
         <v>40080</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>161</v>
@@ -12331,7 +12621,7 @@
       <c r="G80" s="7">
         <v>31442</v>
       </c>
-      <c r="H80" s="64">
+      <c r="H80" s="61">
         <v>32</v>
       </c>
       <c r="I80" s="3" t="s">
@@ -12341,7 +12631,7 @@
         <v>41765</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -12350,9 +12640,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="41" max="16383" man="1"/>
+    <brk id="56" max="10" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -12361,29 +12651,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F17"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.25" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="15" customWidth="1"/>
-    <col min="3" max="3" width="15" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16" style="15" customWidth="1"/>
+    <col min="2" max="6" width="15.625" style="15" customWidth="1"/>
     <col min="7" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="38.25">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="2:6" ht="6" customHeight="1">
       <c r="B2" s="21"/>
@@ -12393,117 +12679,115 @@
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:6" ht="27.75" customHeight="1">
-      <c r="B3" s="77" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="E4" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B5" s="80"/>
+      <c r="C5" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B5" s="87"/>
-      <c r="C5" s="22" t="s">
+      <c r="E5" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B6" s="80"/>
+      <c r="C6" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B6" s="87"/>
-      <c r="C6" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
+      <c r="D6" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
     </row>
     <row r="7" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B7" s="87" t="s">
-        <v>250</v>
+      <c r="B7" s="80" t="s">
+        <v>249</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B8" s="87"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" ht="7.5" customHeight="1"/>
     <row r="10" spans="2:6" ht="27.75" customHeight="1">
-      <c r="B10" s="77" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
+      <c r="B10" s="79" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="2:6" ht="25.5" customHeight="1">
       <c r="B11" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="70" t="s">
-        <v>248</v>
+        <v>223</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="83"/>
+      <c r="E11" s="67" t="s">
+        <v>247</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="25.5" customHeight="1">
       <c r="B12" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="30" t="s">
+      <c r="F12" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="7.5" customHeight="1">
@@ -12514,111 +12798,111 @@
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="2:6" ht="27.75" customHeight="1">
-      <c r="B14" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
+      <c r="B14" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
     </row>
     <row r="15" spans="2:6" ht="25.5" customHeight="1">
       <c r="B15" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
+        <v>212</v>
+      </c>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="25.5" customHeight="1">
       <c r="B16" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="70" t="s">
         <v>237</v>
-      </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="72" t="s">
-        <v>216</v>
-      </c>
-      <c r="F16" s="73" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="25.5" customHeight="1">
       <c r="B17" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+    </row>
+    <row r="18" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B18" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C18" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-    </row>
-    <row r="18" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B18" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="26" t="s">
+      <c r="D18" s="84" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+    </row>
+    <row r="19" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B19" s="86"/>
+      <c r="C19" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-    </row>
-    <row r="19" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B19" s="84"/>
-      <c r="C19" s="26" t="s">
+      <c r="D19" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="D19" s="83" t="s">
-        <v>236</v>
-      </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
     </row>
     <row r="20" spans="2:6" ht="25.5" customHeight="1">
       <c r="B20" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C20" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="E20" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>242</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="25.5" customHeight="1">
       <c r="B21" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
+        <v>216</v>
+      </c>
+      <c r="C21" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
     </row>
     <row r="22" spans="2:6" ht="25.5" customHeight="1">
       <c r="B22" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
+        <v>238</v>
+      </c>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
     </row>
     <row r="23" spans="2:6" ht="7.5" customHeight="1">
       <c r="B23" s="14"/>
@@ -12628,65 +12912,65 @@
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="2:6" ht="27.75" customHeight="1">
-      <c r="B24" s="77" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
+      <c r="B24" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
     </row>
     <row r="25" spans="2:6" ht="25.5" customHeight="1">
       <c r="B25" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
+        <v>243</v>
+      </c>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
     </row>
     <row r="26" spans="2:6" ht="25.5" customHeight="1">
       <c r="B26" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+    </row>
+    <row r="27" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B27" s="89" t="s">
         <v>245</v>
       </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-    </row>
-    <row r="27" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B27" s="79" t="s">
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+    </row>
+    <row r="28" spans="2:6" ht="9" customHeight="1">
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+    </row>
+    <row r="29" spans="2:6" ht="30" customHeight="1">
+      <c r="B29" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-    </row>
-    <row r="28" spans="2:6" ht="9" customHeight="1">
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-    </row>
-    <row r="29" spans="2:6" ht="30" customHeight="1">
-      <c r="B29" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
     </row>
     <row r="30" spans="2:6" ht="27.75" customHeight="1">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F30" s="12" t="str">
         <f>D4</f>
@@ -12698,7 +12982,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F31" s="12">
         <f>D7</f>
@@ -12714,11 +12998,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="C21:F21"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -12731,12 +13016,11 @@
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12750,7 +13034,7 @@
   <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12771,52 +13055,52 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="34">
         <v>1000</v>
       </c>
-      <c r="E4" s="71" t="s">
-        <v>333</v>
+      <c r="E4" s="68" t="s">
+        <v>332</v>
       </c>
       <c r="F4" s="34">
         <v>1000</v>
       </c>
-      <c r="H4" s="95">
+      <c r="H4" s="74">
         <v>1000</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C5" s="34">
         <v>2000</v>
       </c>
-      <c r="E5" s="71" t="s">
-        <v>334</v>
+      <c r="E5" s="68" t="s">
+        <v>333</v>
       </c>
       <c r="F5" s="34">
         <v>2000</v>
       </c>
-      <c r="H5" s="95">
+      <c r="H5" s="74">
         <v>2000</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C6" s="34">
         <v>3000</v>
       </c>
-      <c r="E6" s="71" t="s">
-        <v>335</v>
+      <c r="E6" s="68" t="s">
+        <v>334</v>
       </c>
       <c r="F6" s="34">
         <v>3000</v>
       </c>
-      <c r="H6" s="95">
+      <c r="H6" s="74">
         <v>3000</v>
       </c>
     </row>
@@ -12837,7 +13121,7 @@
         <f>F4+F5+F6</f>
         <v>6000</v>
       </c>
-      <c r="H7" s="95">
+      <c r="H7" s="74">
         <f>H4+H5+H6</f>
         <v>6000</v>
       </c>
@@ -12853,8 +13137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12867,83 +13151,83 @@
   <sheetData>
     <row r="2" spans="2:5" ht="26.25" customHeight="1">
       <c r="B2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1">
       <c r="B3" s="4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="21.75" customHeight="1">
-      <c r="B4" s="52" t="s">
-        <v>413</v>
-      </c>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="49" t="s">
         <v>412</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>411</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="21.75" customHeight="1">
-      <c r="B5" s="81" t="s">
-        <v>414</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>497</v>
+      <c r="B5" s="83" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>493</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>610</v>
+        <v>494</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="21.75" customHeight="1">
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E6" s="91"/>
+        <v>495</v>
+      </c>
+      <c r="E6" s="92"/>
     </row>
     <row r="7" spans="2:5" ht="21.75" customHeight="1">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="83" t="s">
+        <v>603</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>496</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E7" s="91" t="s">
         <v>607</v>
       </c>
-      <c r="C7" s="89" t="s">
-        <v>500</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="E7" s="90" t="s">
-        <v>611</v>
-      </c>
     </row>
     <row r="8" spans="2:5" ht="21.75" customHeight="1">
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="E8" s="91"/>
+        <v>601</v>
+      </c>
+      <c r="E8" s="92"/>
     </row>
     <row r="9" spans="2:5" ht="11.25" customHeight="1">
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="55"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="11" spans="2:5" ht="28.5" customHeight="1"/>
     <row r="12" spans="2:5" ht="28.5" customHeight="1"/>
@@ -12960,7 +13244,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12969,7 +13253,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12981,130 +13265,130 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D10" t="s">
         <v>421</v>
       </c>
-      <c r="D10" t="s">
-        <v>422</v>
-      </c>
       <c r="F10" t="s">
+        <v>436</v>
+      </c>
+      <c r="G10" t="s">
         <v>437</v>
-      </c>
-      <c r="G10" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="33">
       <c r="B12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="33">
       <c r="B14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="28.5" customHeight="1">
       <c r="B16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="D16" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="28.5" customHeight="1">
+      <c r="B17" s="93" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>427</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>432</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="28.5" customHeight="1">
-      <c r="B17" s="92" t="s">
-        <v>445</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>428</v>
       </c>
       <c r="D17" s="32">
         <v>90</v>
@@ -13119,9 +13403,9 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="28.5" customHeight="1">
-      <c r="B18" s="92"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D18" s="32">
         <v>80</v>
@@ -13129,19 +13413,27 @@
       <c r="E18" s="32">
         <v>100</v>
       </c>
-      <c r="F18" s="41"/>
+      <c r="F18" s="40" t="str">
+        <f>SUM(D18:E18)&amp;CHAR(10)&amp;"("&amp;AVERAGE(D18:E18)&amp;")"</f>
+        <v>180
+(90)</v>
+      </c>
     </row>
     <row r="19" spans="2:6" ht="28.5" customHeight="1">
       <c r="C19" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D19" s="32">
         <v>100</v>
       </c>
-      <c r="E19" s="32">
-        <v>100</v>
-      </c>
-      <c r="F19" s="41"/>
+      <c r="E19" s="71">
+        <v>50</v>
+      </c>
+      <c r="F19" s="40" t="str">
+        <f>SUM(D19:E19)&amp;CHAR(10)&amp;"("&amp;AVERAGE(D19:E19)&amp;")"</f>
+        <v>150
+(75)</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
